--- a/Trabajo Integrador - ESTADISTICA.xlsx
+++ b/Trabajo Integrador - ESTADISTICA.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BGH\OneDrive\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3335B675-F982-4578-B90E-F8679DA42DF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B614D7-F924-45F1-AAD8-AF1AF425B945}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{9BEEDAED-CD1B-4E47-8A29-1192471C5EC3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="9" xr2:uid="{9BEEDAED-CD1B-4E47-8A29-1192471C5EC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio A" sheetId="1" r:id="rId1"/>
     <sheet name="Ejercicio B" sheetId="2" r:id="rId2"/>
     <sheet name="Ejercicio C" sheetId="3" r:id="rId3"/>
+    <sheet name="Ejercicio D" sheetId="4" r:id="rId4"/>
+    <sheet name="Ejercicio E" sheetId="5" r:id="rId5"/>
+    <sheet name="Ejercicio F" sheetId="6" r:id="rId6"/>
+    <sheet name="Ejercicio G" sheetId="7" r:id="rId7"/>
+    <sheet name="Ejercicio H" sheetId="8" r:id="rId8"/>
+    <sheet name="Ejercicio I" sheetId="9" r:id="rId9"/>
+    <sheet name="Ejercicio J" sheetId="10" r:id="rId10"/>
+    <sheet name="Ejercicio K" sheetId="11" r:id="rId11"/>
+    <sheet name="Ejercicio L" sheetId="12" r:id="rId12"/>
+    <sheet name="Ejercicio M" sheetId="13" r:id="rId13"/>
+    <sheet name="Ejercicio N" sheetId="14" r:id="rId14"/>
+    <sheet name="Ejercicio O" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="93">
   <si>
     <t>Barcelona SC</t>
   </si>
@@ -136,12 +148,199 @@
   <si>
     <t>Pts</t>
   </si>
+  <si>
+    <t>Circulación de vehículos por peaje que transitan por las  autopistas. Ciudad de Buenos Aires. Enero de 2014/enero de 2021</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Alberti</t>
+  </si>
+  <si>
+    <t>Avellaneda</t>
+  </si>
+  <si>
+    <t>Dellepiane</t>
+  </si>
+  <si>
+    <t>Illia</t>
+  </si>
+  <si>
+    <t>Retiro</t>
+  </si>
+  <si>
+    <t>Sarmiento</t>
+  </si>
+  <si>
+    <t>Salguero</t>
+  </si>
+  <si>
+    <t>Paseo del Bajo</t>
+  </si>
+  <si>
+    <t>Enero</t>
+  </si>
+  <si>
+    <t>Febrero</t>
+  </si>
+  <si>
+    <t>Marzo</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t>Junio</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Septiembre</t>
+  </si>
+  <si>
+    <t>Octubre</t>
+  </si>
+  <si>
+    <t>Noviembre</t>
+  </si>
+  <si>
+    <t>Diciembre</t>
+  </si>
+  <si>
+    <t>Argentinos</t>
+  </si>
+  <si>
+    <t>Extranjeros</t>
+  </si>
+  <si>
+    <t>Entradas de pasajeros en Aeroparque Jorge Newbery</t>
+  </si>
+  <si>
+    <t>Todos los goles en la distintas competencias de disputo</t>
+  </si>
+  <si>
+    <t>Competicion</t>
+  </si>
+  <si>
+    <t>Partidos</t>
+  </si>
+  <si>
+    <t>Goles</t>
+  </si>
+  <si>
+    <t>Promedio</t>
+  </si>
+  <si>
+    <t>Liga Española</t>
+  </si>
+  <si>
+    <t>Copa del Rey</t>
+  </si>
+  <si>
+    <t>Liga de Campeones</t>
+  </si>
+  <si>
+    <t>Supercopa de España</t>
+  </si>
+  <si>
+    <t>Supercopa de Europa</t>
+  </si>
+  <si>
+    <t>Mundial de Clubes</t>
+  </si>
+  <si>
+    <t>https://www.infobae.com/salud/2020/05/13/la-pandemia-por-coronavirus-no-puede-postergar-el-tratamiento-de-otras-enfermedades/</t>
+  </si>
+  <si>
+    <t>Abosluto</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Ciudadano nacido en el país</t>
+  </si>
+  <si>
+    <t>Ciudadano extranjero</t>
+  </si>
+  <si>
+    <t>Ciudadano privado de libertad</t>
+  </si>
+  <si>
+    <t>///</t>
+  </si>
+  <si>
+    <t>Juntos por el Cambio</t>
+  </si>
+  <si>
+    <t>Frente de Todos</t>
+  </si>
+  <si>
+    <t>Consenso Federal</t>
+  </si>
+  <si>
+    <t>Frente de Izquierda y de los Trabajadores</t>
+  </si>
+  <si>
+    <t>Unite por la Libertad y la Dignidad</t>
+  </si>
+  <si>
+    <t>Autodeterminación y Libertad</t>
+  </si>
+  <si>
+    <t>Movimiento al Socialismo</t>
+  </si>
+  <si>
+    <t>Demócrata Cristiano</t>
+  </si>
+  <si>
+    <t>Dignidad Popular</t>
+  </si>
+  <si>
+    <t>Voto en blanco</t>
+  </si>
+  <si>
+    <t>Voto nulo</t>
+  </si>
+  <si>
+    <t>Votos emitidos para Legisladores de la Ciudad en elecciones Primarias Abiertas Simultáneas Obligatorias por tipo de
+ votante según clasificación del voto y partido político, alianza o lista interna y distribución porcentual de los votos 
+positivos por partido político, alianza o lista interna. Ciudad de Buenos Aires. Año 2019</t>
+  </si>
+  <si>
+    <t>Partido Politico</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="12">
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;\ #,##0;\-&quot;$&quot;\ #,##0"/>
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;\ #,##0.00;\-&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _P_t_s_-;\-* #,##0.00\ _P_t_s_-;_-* &quot;-&quot;??\ _P_t_s_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="mmmm\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="#."/>
+    <numFmt numFmtId="167" formatCode="#,##0."/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="&quot;$&quot;#."/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0\ _P_t_s_-;\-* #,##0\ _P_t_s_-;_-* &quot;-&quot;??\ _P_t_s_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="_(&quot;N$&quot;* #,##0_);_(&quot;N$&quot;* \(#,##0\);_(&quot;N$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,8 +370,247 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="1"/>
+      <color indexed="16"/>
+      <name val="Courier"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="1"/>
+      <color indexed="8"/>
+      <name val="Courier"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="1"/>
+      <color indexed="8"/>
+      <name val="Courier"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="1"/>
+      <color indexed="8"/>
+      <name val="Courier"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="1"/>
+      <color indexed="16"/>
+      <name val="Courier"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Bahnschrift"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,8 +629,199 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -200,12 +829,350 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyBorder="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" applyNumberFormat="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyAlignment="0"/>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="7" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="5" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -215,12 +1182,514 @@
     </xf>
     <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="19" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="19" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="18" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="18" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="94" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="94" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="94" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="4" xfId="94" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="119">
+    <cellStyle name="20% - Énfasis1 2" xfId="39" xr:uid="{046840A0-F8A9-4629-AD58-44E0E6A614D3}"/>
+    <cellStyle name="20% - Énfasis2 2" xfId="40" xr:uid="{E7E94C5D-958E-47D0-B2F5-604E59C8C372}"/>
+    <cellStyle name="20% - Énfasis3 2" xfId="41" xr:uid="{4DA80323-3C66-4644-8F14-A6BA04846E34}"/>
+    <cellStyle name="20% - Énfasis4 2" xfId="42" xr:uid="{D5260969-A0AB-4D8E-BD31-5423E60AF989}"/>
+    <cellStyle name="20% - Énfasis5 2" xfId="43" xr:uid="{08396DD7-810A-47D0-813B-B787D2F7EEC7}"/>
+    <cellStyle name="20% - Énfasis6 2" xfId="44" xr:uid="{102EF64D-D52C-4E13-8161-6EE5B0F59693}"/>
+    <cellStyle name="40% - Énfasis1 2" xfId="45" xr:uid="{1D545842-90D3-416C-BB62-84FF178D3239}"/>
+    <cellStyle name="40% - Énfasis2 2" xfId="46" xr:uid="{CD64317C-27DE-4DEF-9F07-FD591278A4DF}"/>
+    <cellStyle name="40% - Énfasis3 2" xfId="47" xr:uid="{F2E23927-9460-4675-8E9B-FA510E3BECB2}"/>
+    <cellStyle name="40% - Énfasis4 2" xfId="48" xr:uid="{682B4C45-3636-4A7C-8AF8-1BC7147B8ADC}"/>
+    <cellStyle name="40% - Énfasis5 2" xfId="49" xr:uid="{1658A4DE-FC11-45C7-AB45-13C59C0E9A2C}"/>
+    <cellStyle name="40% - Énfasis6 2" xfId="50" xr:uid="{592329AB-4E8A-47D7-BEF0-E5CACFD7117D}"/>
+    <cellStyle name="60% - Énfasis1 2" xfId="51" xr:uid="{F27A9C51-627F-4FBC-8E25-5F1C959E8652}"/>
+    <cellStyle name="60% - Énfasis2 2" xfId="52" xr:uid="{2E7977C3-7760-4595-830D-A97998A29811}"/>
+    <cellStyle name="60% - Énfasis3 2" xfId="53" xr:uid="{F6C0A06E-E330-4864-B6F5-8FB927BD5136}"/>
+    <cellStyle name="60% - Énfasis4 2" xfId="54" xr:uid="{A923D5E1-D706-45EE-8AD7-7464CB6DA35F}"/>
+    <cellStyle name="60% - Énfasis5 2" xfId="55" xr:uid="{66F54B79-8A73-417C-8A25-65C75A78E40F}"/>
+    <cellStyle name="60% - Énfasis6 2" xfId="56" xr:uid="{20D3FDC3-73BD-414D-AD4A-89649955F18C}"/>
+    <cellStyle name="Buena 2" xfId="57" xr:uid="{7E5549A9-92B0-4D45-9498-C88BD56755DE}"/>
+    <cellStyle name="Cabecera 1" xfId="2" xr:uid="{B6EF1A0C-5617-4A86-8682-7078B4CF06BB}"/>
+    <cellStyle name="Cabecera 2" xfId="3" xr:uid="{DF579B59-A246-4FD8-81B7-296F063C28AD}"/>
+    <cellStyle name="Cabezal" xfId="4" xr:uid="{F992413B-EFCC-4AE6-B789-CA66E2FF8A40}"/>
+    <cellStyle name="Cabezal 2" xfId="58" xr:uid="{85A681AF-7D5B-44BB-B1E7-2BAD23B72AAA}"/>
+    <cellStyle name="Cálculo 2" xfId="59" xr:uid="{380178FC-FEAA-47CB-AED0-27CD423E0E5D}"/>
+    <cellStyle name="Celda de comprobación 2" xfId="60" xr:uid="{A525EE57-2861-420B-A1D7-71BE0E1073E9}"/>
+    <cellStyle name="Celda vinculada 2" xfId="61" xr:uid="{F57303AE-E942-4A2D-9E7F-FEEC2907F89D}"/>
+    <cellStyle name="coltit" xfId="5" xr:uid="{865021D7-425F-4ED3-A8EF-E15AACFDB0A0}"/>
+    <cellStyle name="Columna títulos" xfId="6" xr:uid="{F6B9B066-C1D8-4BA8-AF65-605537099CD2}"/>
+    <cellStyle name="Comma" xfId="7" xr:uid="{E7EEF2F1-F8A7-4984-A7F9-D81763B26664}"/>
+    <cellStyle name="Comma0" xfId="8" xr:uid="{031955C5-2884-4D41-8A3C-C00D30912E12}"/>
+    <cellStyle name="cuadro" xfId="9" xr:uid="{4DF76827-202D-4EEC-8304-AF52DC6348B1}"/>
+    <cellStyle name="Currency" xfId="10" xr:uid="{F40D2583-1A81-4FB7-85B3-85F1C8161C2A}"/>
+    <cellStyle name="Currency0" xfId="11" xr:uid="{14B0C084-EF2A-4C51-BA1E-2C623F0095E1}"/>
+    <cellStyle name="Date" xfId="12" xr:uid="{E1B71020-0335-4EE3-A215-07FA30F323C1}"/>
+    <cellStyle name="datos" xfId="13" xr:uid="{597C2DDA-8E46-4876-B2F7-62E1ADBB49E5}"/>
+    <cellStyle name="Encabezado" xfId="14" xr:uid="{B2721B55-C2BB-46AF-9D63-89CDB4537516}"/>
+    <cellStyle name="Encabezado 4 2" xfId="62" xr:uid="{9F6D8768-313D-40CF-A7AF-F656CBC03ACB}"/>
+    <cellStyle name="Énfasis1 2" xfId="63" xr:uid="{B3B7A497-C9DB-44EA-84FE-1ACAFEDD05F2}"/>
+    <cellStyle name="Énfasis2 2" xfId="64" xr:uid="{2A38C2EF-A399-4B16-84C1-9E907B22D01A}"/>
+    <cellStyle name="Énfasis3 2" xfId="65" xr:uid="{C4EFF68F-8656-4C64-9681-5CE9F32406D9}"/>
+    <cellStyle name="Énfasis4 2" xfId="66" xr:uid="{4E681BC3-D056-48DF-BBEE-923BD2059078}"/>
+    <cellStyle name="Énfasis5 2" xfId="67" xr:uid="{F8D37C1F-E26E-4FA3-A9B7-2F06C35302BE}"/>
+    <cellStyle name="Énfasis6 2" xfId="68" xr:uid="{2C40788E-D876-4F22-83F5-443CBD7C1807}"/>
+    <cellStyle name="Entrada 2" xfId="69" xr:uid="{3372D8C3-603F-4EF5-9094-31FD829D769C}"/>
+    <cellStyle name="F2" xfId="15" xr:uid="{0B5FBA17-6609-48F8-B479-71D230B17EF5}"/>
+    <cellStyle name="F3" xfId="16" xr:uid="{CC791F5A-76A4-4C49-B631-B53856B97A80}"/>
+    <cellStyle name="F4" xfId="17" xr:uid="{D0C15144-B75C-4747-9E77-341FAAC0FECC}"/>
+    <cellStyle name="F5" xfId="18" xr:uid="{6FE10044-642C-4917-B4F5-0B03A6FEA5AD}"/>
+    <cellStyle name="F6" xfId="19" xr:uid="{5BCB5115-69B7-4BBF-A504-F74F56015CCA}"/>
+    <cellStyle name="F7" xfId="20" xr:uid="{F69304C8-20C4-4BE3-B1BF-0DEDEB2F196C}"/>
+    <cellStyle name="F8" xfId="21" xr:uid="{45214E36-ADD4-4287-B9C6-0B5927114250}"/>
+    <cellStyle name="Fecha" xfId="22" xr:uid="{53247205-68CD-479F-9648-FB657540404D}"/>
+    <cellStyle name="Fijo" xfId="23" xr:uid="{C0D23796-FA1B-478C-A904-8D1DBD6AF334}"/>
+    <cellStyle name="Fin del cuadro" xfId="24" xr:uid="{DA31E383-5A3C-4091-B27E-C7A3484BBB34}"/>
+    <cellStyle name="fincuadro" xfId="25" xr:uid="{C2A6DA26-2FA4-4A64-845E-E3DACD2AB9B7}"/>
+    <cellStyle name="fincuadro 2" xfId="70" xr:uid="{EC08EA0C-0928-4F3A-822B-B54A51258E1F}"/>
+    <cellStyle name="Fixed" xfId="26" xr:uid="{0DF9800D-5A50-4FD4-9FD0-2A18FE2A2739}"/>
+    <cellStyle name="fuente" xfId="27" xr:uid="{38DAC6D2-6F73-4911-A641-AA36BA21C636}"/>
+    <cellStyle name="Heading 1" xfId="28" xr:uid="{43DE61ED-7EAA-4B09-B1C9-829045195373}"/>
+    <cellStyle name="Heading 2" xfId="29" xr:uid="{3673C5A8-76C2-42D4-BF8B-1F44143FE269}"/>
+    <cellStyle name="Heading1" xfId="30" xr:uid="{FCFA2A35-8259-4F4D-A1B9-56B9FD3ADC34}"/>
+    <cellStyle name="Heading2" xfId="31" xr:uid="{85B4FA9E-6094-4050-AA05-B7BBF84EBD0F}"/>
+    <cellStyle name="Hipervínculo 2" xfId="71" xr:uid="{0EE4AE88-06D7-4CAF-A623-9268D7F2A720}"/>
+    <cellStyle name="Hipervínculo 3" xfId="72" xr:uid="{22E9AE21-1A39-4217-B127-3D68219231D2}"/>
+    <cellStyle name="Hipervínculo 3 2" xfId="73" xr:uid="{0344D39C-CEE4-47B6-A8B6-5A65967C3E1D}"/>
+    <cellStyle name="Incorrecto 2" xfId="74" xr:uid="{FD0DE562-C9E3-4DA1-8DC8-6985FCDE2BFB}"/>
+    <cellStyle name="Millares 2" xfId="75" xr:uid="{C515BAE9-5295-4CB0-A830-0650F4F44DE0}"/>
+    <cellStyle name="Monetario" xfId="32" xr:uid="{E7D7050B-443F-490E-A6DB-B72A310B625C}"/>
+    <cellStyle name="Monetario0" xfId="33" xr:uid="{1E6D92E2-8D93-419C-9C06-B625C42840E4}"/>
+    <cellStyle name="Neutral 2" xfId="76" xr:uid="{6E0EE0BE-D02C-48B8-933A-464629BD3F4D}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="34" xr:uid="{64FBF147-CAAF-488B-80B9-1B66F332DDA4}"/>
+    <cellStyle name="Normal 2 2" xfId="77" xr:uid="{CA61833A-2666-444B-97B3-C46CE92FCE84}"/>
+    <cellStyle name="Normal 2 3" xfId="78" xr:uid="{266E0687-D841-4C9A-B473-66E7856B95F4}"/>
+    <cellStyle name="Normal 2 4" xfId="79" xr:uid="{C1775E95-3F77-4128-AD68-06E373C19607}"/>
+    <cellStyle name="Normal 2 5" xfId="80" xr:uid="{7B33DDF4-BA33-467D-A2B3-8A4448B5E431}"/>
+    <cellStyle name="Normal 2 6" xfId="81" xr:uid="{7BB437CE-CA20-4A29-A49F-D1C45470AFB3}"/>
+    <cellStyle name="Normal 3" xfId="82" xr:uid="{32C76C89-1B98-4CC0-8CA7-8535EB4F8C49}"/>
+    <cellStyle name="Normal 3 2" xfId="83" xr:uid="{88C4100B-C2F5-46CD-BC78-24FE8DA4EC32}"/>
+    <cellStyle name="Normal 3 3" xfId="84" xr:uid="{5670DBA1-B5C9-4650-9564-3075EF575AA4}"/>
+    <cellStyle name="Normal 3 4" xfId="85" xr:uid="{232881BA-C1B0-4045-94B6-31265736B5B8}"/>
+    <cellStyle name="Normal 4" xfId="86" xr:uid="{467C7BFC-A876-46C3-BEF0-A0A2EF5836E1}"/>
+    <cellStyle name="Normal 4 2" xfId="87" xr:uid="{15204611-B722-4FB4-915A-2EB43F028261}"/>
+    <cellStyle name="Normal 4 2 2" xfId="88" xr:uid="{D1C7065A-76DF-4037-917E-912BC60950A2}"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="89" xr:uid="{D77EE7BD-CB71-457B-B58C-5D08FB5F778D}"/>
+    <cellStyle name="Normal 4 2 2 3" xfId="90" xr:uid="{F5470FB5-AF5D-4DC2-B866-E30DC54482AC}"/>
+    <cellStyle name="Normal 4 2 3" xfId="91" xr:uid="{90D5CC4F-3432-4255-85B9-173C2A01A13F}"/>
+    <cellStyle name="Normal 4 3" xfId="92" xr:uid="{69B9F1F3-290C-4BC8-8D5D-095D870846D5}"/>
+    <cellStyle name="Normal 4 4" xfId="93" xr:uid="{DEA89A07-0E0D-4B71-BF81-069C21E9FF61}"/>
+    <cellStyle name="Normal 5" xfId="94" xr:uid="{9CF71337-DA4E-4A4A-BE6B-41CB50679BB5}"/>
+    <cellStyle name="Normal 5 2" xfId="95" xr:uid="{CEA651A7-89E2-4315-9BC3-B18EC7C2B236}"/>
+    <cellStyle name="Normal 5 3" xfId="96" xr:uid="{9FF32465-C583-427B-8C6A-11BEBD5BCEFC}"/>
+    <cellStyle name="Normal 6" xfId="97" xr:uid="{DC1A8648-F5E7-40D5-A97F-A6D8AF8252EF}"/>
+    <cellStyle name="Normal 6 2" xfId="98" xr:uid="{B8336A60-DBFB-42E4-ADF3-8DA6923B1CFF}"/>
+    <cellStyle name="Normal 6 3" xfId="99" xr:uid="{A49DBCC5-71E6-469A-A1C9-1F2B4D9EF01B}"/>
+    <cellStyle name="Normal 6 4" xfId="100" xr:uid="{6F376B8A-6731-43B1-BD41-B4725F738402}"/>
+    <cellStyle name="Normal 7" xfId="101" xr:uid="{CF981B4E-FF5D-4138-BB09-B9F769B98EC4}"/>
+    <cellStyle name="Normal 7 2" xfId="102" xr:uid="{B89C89B4-2696-40A1-AB81-2DD5D4B06463}"/>
+    <cellStyle name="Normal 7 3" xfId="103" xr:uid="{42111F69-5ECD-4214-8B99-99589E186EBF}"/>
+    <cellStyle name="Normal 8" xfId="104" xr:uid="{B1715402-9F05-4CF5-BCC8-DC1E7D89F61B}"/>
+    <cellStyle name="Normal 8 2" xfId="105" xr:uid="{DEAAD033-1EF4-468C-A80F-4FC553EF6C18}"/>
+    <cellStyle name="Normal 9" xfId="106" xr:uid="{EA77EDE3-9E71-4290-B5BD-D71181DCE8CB}"/>
+    <cellStyle name="Notas 2" xfId="107" xr:uid="{B690DC2C-DDA3-4D30-A656-EFD3AB3B3427}"/>
+    <cellStyle name="Percent" xfId="35" xr:uid="{E7BB9F96-500F-4970-9B39-186EA3793F0C}"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentaje 2" xfId="108" xr:uid="{138C9549-C137-4F42-9623-E58406D41C0F}"/>
+    <cellStyle name="Punto0" xfId="36" xr:uid="{752D8B07-C286-4513-9B1F-E2BCEB75F082}"/>
+    <cellStyle name="Salida 2" xfId="109" xr:uid="{D3B7558B-1CA7-4E37-B534-305047B4F366}"/>
+    <cellStyle name="Texto de advertencia 2" xfId="110" xr:uid="{5D520CBB-B257-47AC-AEF5-25FD7185AF59}"/>
+    <cellStyle name="Texto explicativo 2" xfId="111" xr:uid="{6E73C47B-1952-409F-871A-470B49CAE951}"/>
+    <cellStyle name="titulo" xfId="37" xr:uid="{56EAC411-486D-4799-8DF3-8040EE994FC7}"/>
+    <cellStyle name="Título 1 2" xfId="113" xr:uid="{E2DA79C1-956F-4D91-A175-057610D7DA3B}"/>
+    <cellStyle name="Titulo 2" xfId="112" xr:uid="{2977A1F6-2EAE-4035-9D97-ABBE29EF342F}"/>
+    <cellStyle name="Título 2 2" xfId="114" xr:uid="{A71B9340-1A19-4701-A40B-2F012AD9660C}"/>
+    <cellStyle name="Titulo 3" xfId="118" xr:uid="{0D3E4BDB-6192-4416-BA31-FF308FAF312F}"/>
+    <cellStyle name="Título 3 2" xfId="115" xr:uid="{E3D1D861-2746-4FEB-9DF0-C3A20B417F52}"/>
+    <cellStyle name="Titulo 4" xfId="117" xr:uid="{8FFFAEF6-A458-464C-9462-BC1D4D486FB0}"/>
+    <cellStyle name="Total 2" xfId="116" xr:uid="{D0311698-D434-4C85-8CF9-F77C225BA8A3}"/>
+    <cellStyle name="totcuadro" xfId="38" xr:uid="{9752FB02-CF08-480B-B7A2-35D76D0C2870}"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2724,6 +4193,2431 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>Cantidad</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-AR" baseline="0"/>
+              <a:t> en entrada Anual</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ejercicio G'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Argentinos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ejercicio G'!$A$3:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Enero</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Febrero</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Marzo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mayo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Junio</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Julio</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Agosto</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Septiembre</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Octubre</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Noviembre</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Diciembre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ejercicio G'!$C$3:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>57801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55263</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5249</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4581</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4451</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5837</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4839</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5473</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6663</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7880</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C9EA-4F9F-A94B-609EAB5FA494}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ejercicio G'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Extranjeros</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ejercicio G'!$A$3:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Enero</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Febrero</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Marzo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mayo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Junio</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Julio</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Agosto</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Septiembre</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Octubre</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Noviembre</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Diciembre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ejercicio G'!$D$3:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>35917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29203</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35275</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7171</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6266</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5970</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5861</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5664</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6670</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5951</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5852</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5727</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C9EA-4F9F-A94B-609EAB5FA494}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1182954111"/>
+        <c:axId val="1182956191"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1182954111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1182956191"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1182956191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Nº de pasajeros</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1182954111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5000"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>672</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Goles de Messi</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ejercicio H'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Goles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7E6A-489F-8BBB-684A1A5C86A1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7E6A-489F-8BBB-684A1A5C86A1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7E6A-489F-8BBB-684A1A5C86A1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-7E6A-489F-8BBB-684A1A5C86A1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-7E6A-489F-8BBB-684A1A5C86A1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-7E6A-489F-8BBB-684A1A5C86A1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="95000"/>
+                      <a:alpha val="54000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ejercicio H'!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Liga Española</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Copa del Rey</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Liga de Campeones</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Supercopa de España</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Supercopa de Europa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mundial de Clubes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ejercicio H'!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3426-4A7B-B0C3-66CC2C46DA22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredPieSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Ejercicio H'!$B$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Partidos</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:dPt>
+                  <c:idx val="0"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:gradFill rotWithShape="1">
+                      <a:gsLst>
+                        <a:gs pos="0">
+                          <a:schemeClr val="accent1">
+                            <a:satMod val="103000"/>
+                            <a:lumMod val="102000"/>
+                            <a:tint val="94000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                        <a:gs pos="50000">
+                          <a:schemeClr val="accent1">
+                            <a:satMod val="110000"/>
+                            <a:lumMod val="100000"/>
+                            <a:shade val="100000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                        <a:gs pos="100000">
+                          <a:schemeClr val="accent1">
+                            <a:lumMod val="99000"/>
+                            <a:satMod val="120000"/>
+                            <a:shade val="78000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                      </a:gsLst>
+                      <a:lin ang="5400000" scaled="0"/>
+                    </a:gradFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                        <a:srgbClr val="000000">
+                          <a:alpha val="63000"/>
+                        </a:srgbClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000000D-7E6A-489F-8BBB-684A1A5C86A1}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="1"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:gradFill rotWithShape="1">
+                      <a:gsLst>
+                        <a:gs pos="0">
+                          <a:schemeClr val="accent2">
+                            <a:satMod val="103000"/>
+                            <a:lumMod val="102000"/>
+                            <a:tint val="94000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                        <a:gs pos="50000">
+                          <a:schemeClr val="accent2">
+                            <a:satMod val="110000"/>
+                            <a:lumMod val="100000"/>
+                            <a:shade val="100000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                        <a:gs pos="100000">
+                          <a:schemeClr val="accent2">
+                            <a:lumMod val="99000"/>
+                            <a:satMod val="120000"/>
+                            <a:shade val="78000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                      </a:gsLst>
+                      <a:lin ang="5400000" scaled="0"/>
+                    </a:gradFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                        <a:srgbClr val="000000">
+                          <a:alpha val="63000"/>
+                        </a:srgbClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000000F-7E6A-489F-8BBB-684A1A5C86A1}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="2"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:gradFill rotWithShape="1">
+                      <a:gsLst>
+                        <a:gs pos="0">
+                          <a:schemeClr val="accent3">
+                            <a:satMod val="103000"/>
+                            <a:lumMod val="102000"/>
+                            <a:tint val="94000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                        <a:gs pos="50000">
+                          <a:schemeClr val="accent3">
+                            <a:satMod val="110000"/>
+                            <a:lumMod val="100000"/>
+                            <a:shade val="100000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                        <a:gs pos="100000">
+                          <a:schemeClr val="accent3">
+                            <a:lumMod val="99000"/>
+                            <a:satMod val="120000"/>
+                            <a:shade val="78000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                      </a:gsLst>
+                      <a:lin ang="5400000" scaled="0"/>
+                    </a:gradFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                        <a:srgbClr val="000000">
+                          <a:alpha val="63000"/>
+                        </a:srgbClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000011-7E6A-489F-8BBB-684A1A5C86A1}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="3"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:gradFill rotWithShape="1">
+                      <a:gsLst>
+                        <a:gs pos="0">
+                          <a:schemeClr val="accent4">
+                            <a:satMod val="103000"/>
+                            <a:lumMod val="102000"/>
+                            <a:tint val="94000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                        <a:gs pos="50000">
+                          <a:schemeClr val="accent4">
+                            <a:satMod val="110000"/>
+                            <a:lumMod val="100000"/>
+                            <a:shade val="100000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                        <a:gs pos="100000">
+                          <a:schemeClr val="accent4">
+                            <a:lumMod val="99000"/>
+                            <a:satMod val="120000"/>
+                            <a:shade val="78000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                      </a:gsLst>
+                      <a:lin ang="5400000" scaled="0"/>
+                    </a:gradFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                        <a:srgbClr val="000000">
+                          <a:alpha val="63000"/>
+                        </a:srgbClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000013-7E6A-489F-8BBB-684A1A5C86A1}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="4"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:gradFill rotWithShape="1">
+                      <a:gsLst>
+                        <a:gs pos="0">
+                          <a:schemeClr val="accent5">
+                            <a:satMod val="103000"/>
+                            <a:lumMod val="102000"/>
+                            <a:tint val="94000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                        <a:gs pos="50000">
+                          <a:schemeClr val="accent5">
+                            <a:satMod val="110000"/>
+                            <a:lumMod val="100000"/>
+                            <a:shade val="100000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                        <a:gs pos="100000">
+                          <a:schemeClr val="accent5">
+                            <a:lumMod val="99000"/>
+                            <a:satMod val="120000"/>
+                            <a:shade val="78000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                      </a:gsLst>
+                      <a:lin ang="5400000" scaled="0"/>
+                    </a:gradFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                        <a:srgbClr val="000000">
+                          <a:alpha val="63000"/>
+                        </a:srgbClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000015-7E6A-489F-8BBB-684A1A5C86A1}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="5"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:gradFill rotWithShape="1">
+                      <a:gsLst>
+                        <a:gs pos="0">
+                          <a:schemeClr val="accent6">
+                            <a:satMod val="103000"/>
+                            <a:lumMod val="102000"/>
+                            <a:tint val="94000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                        <a:gs pos="50000">
+                          <a:schemeClr val="accent6">
+                            <a:satMod val="110000"/>
+                            <a:lumMod val="100000"/>
+                            <a:shade val="100000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                        <a:gs pos="100000">
+                          <a:schemeClr val="accent6">
+                            <a:lumMod val="99000"/>
+                            <a:satMod val="120000"/>
+                            <a:shade val="78000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                      </a:gsLst>
+                      <a:lin ang="5400000" scaled="0"/>
+                    </a:gradFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                        <a:srgbClr val="000000">
+                          <a:alpha val="63000"/>
+                        </a:srgbClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000017-7E6A-489F-8BBB-684A1A5C86A1}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1">
+                              <a:lumMod val="85000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="es-AR"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="bestFit"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="1"/>
+                  <c:leaderLines>
+                    <c:spPr>
+                      <a:ln w="9525">
+                        <a:solidFill>
+                          <a:schemeClr val="lt1">
+                            <a:lumMod val="95000"/>
+                            <a:alpha val="54000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                  </c:leaderLines>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Ejercicio H'!$A$4:$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>Liga Española</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Copa del Rey</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Liga de Campeones</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Supercopa de España</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Supercopa de Europa</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Mundial de Clubes</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Ejercicio H'!$B$4:$B$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>520</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>149</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-3426-4A7B-B0C3-66CC2C46DA22}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredPieSeries>
+          </c:ext>
+        </c:extLst>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Porcentaje</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> de Votos por Partido</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.47866876661563978"/>
+          <c:y val="8.2406252181819073E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ejercicio J'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-0CF4-46F8-8958-A5A25D236FE7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0CF4-46F8-8958-A5A25D236FE7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-0CF4-46F8-8958-A5A25D236FE7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-0CF4-46F8-8958-A5A25D236FE7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-0CF4-46F8-8958-A5A25D236FE7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-0CF4-46F8-8958-A5A25D236FE7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-0CF4-46F8-8958-A5A25D236FE7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10892585259336604"/>
+                  <c:y val="-6.2628751658182505E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-0CF4-46F8-8958-A5A25D236FE7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12102872510374006"/>
+                  <c:y val="-0.12196125322909224"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-0CF4-46F8-8958-A5A25D236FE7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10287441633817905"/>
+                  <c:y val="-0.17470125462545644"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-0CF4-46F8-8958-A5A25D236FE7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.2531507970265729E-2"/>
+                  <c:y val="-0.18788625497454753"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-0CF4-46F8-8958-A5A25D236FE7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.6137163347165338E-2"/>
+                  <c:y val="-0.24392250645818447"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-0CF4-46F8-8958-A5A25D236FE7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.0257181275935047E-2"/>
+                  <c:y val="-0.20766375549818408"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-0CF4-46F8-8958-A5A25D236FE7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.2788689246200692E-2"/>
+                  <c:y val="-0.17140500453818369"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-0CF4-46F8-8958-A5A25D236FE7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:sysClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:gradFill>
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="5000"/>
+                        <a:lumOff val="95000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="74000">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="45000"/>
+                        <a:lumOff val="55000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="83000">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="45000"/>
+                        <a:lumOff val="55000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="30000"/>
+                        <a:lumOff val="70000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="1"/>
+                </a:gradFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ejercicio J'!$A$3:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Juntos por el Cambio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Frente de Todos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Consenso Federal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Frente de Izquierda y de los Trabajadores</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Unite por la Libertad y la Dignidad</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Autodeterminación y Libertad</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Movimiento al Socialismo</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Demócrata Cristiano</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Dignidad Popular</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ejercicio J'!$C$3:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>48.08871139232815</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.320314025700114</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.460009026719959</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5506277476163817</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1812135730621844</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3281863670490004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98914189743389458</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95485772066641506</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12693824942389562</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0CF4-46F8-8958-A5A25D236FE7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2844,6 +6738,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
   <cs:axisTitle>
@@ -4401,6 +8415,1599 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -4838,8 +10445,418 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>23811</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>733424</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DBCC803-0E91-40FB-938B-F5449A696392}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="CuadroTexto 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C33F4F9-16D9-48E0-A419-BCF0E046F8EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4229100" y="228600"/>
+          <a:ext cx="5505450" cy="1952625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Lo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> que tratamos de visualizar en el grafico lineal que la cantidad de pasajeros que arribaron en el Aeroparque Jorge Newbery a lo largo del año 2020. como podemos observar se hizo una categorizacion sobre entre los Argentinos y las personas que no son residentes del pais. era de esperarse una gran movilizacion en los primeros 3 meses del año, ya que suelen ser los meses de vacaciones y climas agradables, que pertenecen a la temporada de verano. pasado esos 3 meses . se puede apreciar una merma importante, pero manteniendo un balance similar en los restos de los meses, de la entrada de pasajeros a nuestro pais.</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-AR" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1BFA4B9-52AD-4962-8C47-599C9CCEFFE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="CuadroTexto 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5197CA07-6A55-496C-8BD7-252619C74C1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5200651" y="2514600"/>
+          <a:ext cx="5486400" cy="2066925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Utilizando</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> el grafico tipo torta buscamos describir la cantidad de goles que realizo Leonel Messi a lo largo de su carrera. a nivel clubes. siendo la Liga Española donde consiguio una marca de 474 goles en 520 partidos, con un promedio de 0,91 goles por partido. tambien dejo su marca en la Liga de Campeones, que con 149 partidos disputados, ha convertido un total de 120 goles, ahi consiguio un promedio de 0,81.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>En la Copa del Rey tambien se hizo presente para no perder la costumbre marcando unos 56 goles en 80 partidos, con una menor cantidad de partidos aparecen la Supercopa de España, Supercopa de Europa y el mundial de clubes, con un total de 22 goles. hoy al dia lleva convertido un total de 672 goles. una bestialidad que aun esperamos que siga marcando records.</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-AR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FFB1335-E9F7-4B0E-8A79-C57A0CCADC4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="CuadroTexto 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8A5ADE8-61C2-441E-91BA-4DF9669892F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6696075" y="3714751"/>
+          <a:ext cx="5629275" cy="1314450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Tomando los</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> datos emitidos de la votacion para legisladores de la ciudad del año 2019, buscamos representar en el grafico tipo anillo el porcentaje que obtuvo cada partido en las elecciones, observando que Juntos por el cambio fue el que mas votos consiguio con un total del 48,1%, dejando en le segundo lugar al partido Frente de Todos con un 33,3%. ya con un porcentaje mucho menor se encuentran los distintos partidos que participaron de la elecciones.</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-AR" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA70EE74-2845-411E-85C0-74EF1181EBFA}" name="Tabla1" displayName="Tabla1" ref="A3:F7" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA70EE74-2845-411E-85C0-74EF1181EBFA}" name="Tabla1" displayName="Tabla1" ref="A3:F7" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A3:F7" xr:uid="{C3F4AB0B-5931-45A7-93BC-F739FA159781}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4849,19 +10866,19 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3C04CA18-05DB-4A6B-8DA4-86A2A40574A7}" name="Grupo C" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{47B2EACF-0F5D-48B5-A6D8-0378A91E5187}" name="P. Jugados" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{E5C01BF3-4184-4FF7-98AE-84C82E481E24}" name="P. Ganados" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{9D13C9A0-5522-4FE4-A917-7B0AA122A07C}" name="P.Empatados" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{ED8FC679-0648-4334-A74A-64ADC62D0F32}" name="P. Perdidos" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{428F2E39-C0B8-48C7-912A-89820936D1B1}" name="Puntos" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{3C04CA18-05DB-4A6B-8DA4-86A2A40574A7}" name="Grupo C" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{47B2EACF-0F5D-48B5-A6D8-0378A91E5187}" name="P. Jugados" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{E5C01BF3-4184-4FF7-98AE-84C82E481E24}" name="P. Ganados" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{9D13C9A0-5522-4FE4-A917-7B0AA122A07C}" name="P.Empatados" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{ED8FC679-0648-4334-A74A-64ADC62D0F32}" name="P. Perdidos" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{428F2E39-C0B8-48C7-912A-89820936D1B1}" name="Puntos" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A22FB04D-1C11-44D1-8E0B-82A3C3851376}" name="Tabla3" displayName="Tabla3" ref="A2:G8" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A22FB04D-1C11-44D1-8E0B-82A3C3851376}" name="Tabla3" displayName="Tabla3" ref="A2:G8" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A2:G8" xr:uid="{EB4F7FFD-161C-450E-A499-646F4BE0FD92}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4872,13 +10889,13 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{DE55EDDD-3599-4181-A136-EC4D58FDD321}" name="Paises" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{5BAA4E32-E58D-4230-A432-C94375993445}" name="2005" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{57C95A93-7E46-4B82-A0E9-11A6910D92E7}" name="2006" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{BBE4D19F-8F6C-415E-B58D-4624B7075943}" name="2007" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{2013D417-618C-43C4-B153-5A5F92C74DA1}" name="2008" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{C26FDAA8-02BA-476A-8C24-02B226EA7C45}" name="2009" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{D1980F3E-C9F5-4AA8-AC23-A4C5DB8523B4}" name="2010" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{DE55EDDD-3599-4181-A136-EC4D58FDD321}" name="Paises" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{5BAA4E32-E58D-4230-A432-C94375993445}" name="2005" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{57C95A93-7E46-4B82-A0E9-11A6910D92E7}" name="2006" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{BBE4D19F-8F6C-415E-B58D-4624B7075943}" name="2007" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{2013D417-618C-43C4-B153-5A5F92C74DA1}" name="2008" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{C26FDAA8-02BA-476A-8C24-02B226EA7C45}" name="2009" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{D1980F3E-C9F5-4AA8-AC23-A4C5DB8523B4}" name="2010" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4901,6 +10918,66 @@
     <tableColumn id="4" xr3:uid="{2B817A74-3BB8-4EFF-B6F7-2F5F232C8C1E}" name="E"/>
     <tableColumn id="5" xr3:uid="{3FB69E19-7789-4C46-B9AC-726B4D1C0DA9}" name="P"/>
     <tableColumn id="6" xr3:uid="{C133D08D-20C6-4641-8A2F-841CEF4F14E4}" name="Pts"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{12AB6280-9D9B-4138-B0C0-59933C2E9AB8}" name="Tabla5" displayName="Tabla5" ref="A2:D14" totalsRowShown="0">
+  <autoFilter ref="A2:D14" xr:uid="{5C1A4C2F-9036-4CD0-AAC1-2E159DB4E5E3}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{42C02FDF-1470-4744-9499-DBBB110F95BC}" name="Año" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{1DF19E8A-8298-4F3D-AB43-BBE45D949D0B}" name="Total" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{69F22244-5660-4369-85F8-54598BB08C73}" name="Argentinos" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{0FF69E63-A9A1-4702-86C7-08F887C3F169}" name="Extranjeros" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D76F97B7-DF26-4FC7-8A89-7DB58854A5F3}" name="Tabla6" displayName="Tabla6" ref="A3:D10" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A3:D10" xr:uid="{1E7D12E3-55C8-4805-A343-B3C63E37C6E0}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{25B18C15-7970-4D49-BB0A-71BAE72D61CE}" name="Competicion" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{76DD5DD5-8050-4D73-A99A-BD9063923F41}" name="Partidos" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{48BB04D2-0EAC-4A2F-887E-EC0BDD8649CC}" name="Goles" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{AE2E073F-DC90-42DA-BB0D-8532021C4B88}" name="Promedio" dataDxfId="9">
+      <calculatedColumnFormula>C4/B4</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3102CCC1-973E-4F1F-8C5A-EEABCC15030E}" name="Tabla8" displayName="Tabla8" ref="A2:F13" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="8">
+  <autoFilter ref="A2:F13" xr:uid="{F04038A5-189D-45A3-AFE5-C9221502EF9F}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{A7D9F072-8F05-4ED2-A483-986D36DBFB23}" name="Partido Politico" dataDxfId="6" dataCellStyle="Normal 5"/>
+    <tableColumn id="2" xr3:uid="{9374A983-81D2-44FD-9423-3F54146703D5}" name="Abosluto" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{51CFC167-ABE6-44E7-B1E5-27952AA5A6DC}" name="%" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{FC55FC16-7927-4BA8-8C8B-AB965E811D15}" name="Ciudadano nacido en el país" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{7DF521A7-A010-4289-9C98-4330685DA3B5}" name="Ciudadano extranjero" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{B354B1BA-7884-430A-A43D-4C2CDB36D6E3}" name="Ciudadano privado de libertad" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5328,6 +11405,787 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1F35C1-BF30-4F4F-989F-38F7CE986436}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.85546875" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+    </row>
+    <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="29">
+        <v>886475</v>
+      </c>
+      <c r="C3" s="35">
+        <v>48.08871139232815</v>
+      </c>
+      <c r="D3" s="39">
+        <v>884838</v>
+      </c>
+      <c r="E3" s="30">
+        <v>1628</v>
+      </c>
+      <c r="F3" s="30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="29">
+        <v>614232</v>
+      </c>
+      <c r="C4" s="35">
+        <v>33.320314025700114</v>
+      </c>
+      <c r="D4" s="39">
+        <v>608840</v>
+      </c>
+      <c r="E4" s="30">
+        <v>5214</v>
+      </c>
+      <c r="F4" s="30">
+        <v>178</v>
+      </c>
+      <c r="H4" s="25"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="29">
+        <v>137519</v>
+      </c>
+      <c r="C5" s="35">
+        <v>7.460009026719959</v>
+      </c>
+      <c r="D5" s="39">
+        <v>137320</v>
+      </c>
+      <c r="E5" s="30">
+        <v>197</v>
+      </c>
+      <c r="F5" s="30">
+        <v>2</v>
+      </c>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="29">
+        <v>83887</v>
+      </c>
+      <c r="C6" s="35">
+        <v>4.5506277476163817</v>
+      </c>
+      <c r="D6" s="39">
+        <v>83440</v>
+      </c>
+      <c r="E6" s="31">
+        <v>434</v>
+      </c>
+      <c r="F6" s="31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="29">
+        <v>58643</v>
+      </c>
+      <c r="C7" s="35">
+        <v>3.1812135730621844</v>
+      </c>
+      <c r="D7" s="39">
+        <v>58589</v>
+      </c>
+      <c r="E7" s="31">
+        <v>53</v>
+      </c>
+      <c r="F7" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="29">
+        <v>24484</v>
+      </c>
+      <c r="C8" s="35">
+        <v>1.3281863670490004</v>
+      </c>
+      <c r="D8" s="39">
+        <v>24386</v>
+      </c>
+      <c r="E8" s="30">
+        <v>94</v>
+      </c>
+      <c r="F8" s="30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="29">
+        <v>18234</v>
+      </c>
+      <c r="C9" s="35">
+        <v>0.98914189743389458</v>
+      </c>
+      <c r="D9" s="39">
+        <v>18172</v>
+      </c>
+      <c r="E9" s="30">
+        <v>58</v>
+      </c>
+      <c r="F9" s="30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="29">
+        <v>17602</v>
+      </c>
+      <c r="C10" s="35">
+        <v>0.95485772066641506</v>
+      </c>
+      <c r="D10" s="39">
+        <v>17503</v>
+      </c>
+      <c r="E10" s="29">
+        <v>96</v>
+      </c>
+      <c r="F10" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="29">
+        <v>2340</v>
+      </c>
+      <c r="C11" s="35">
+        <v>0.12693824942389562</v>
+      </c>
+      <c r="D11" s="39">
+        <v>2249</v>
+      </c>
+      <c r="E11" s="29">
+        <v>88</v>
+      </c>
+      <c r="F11" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="29">
+        <v>115784</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="40">
+        <v>115492</v>
+      </c>
+      <c r="E12" s="30">
+        <v>275</v>
+      </c>
+      <c r="F12" s="30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="32">
+        <v>18144</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="41">
+        <v>18106</v>
+      </c>
+      <c r="E13" s="30">
+        <v>36</v>
+      </c>
+      <c r="F13" s="30">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A716A854-F3FF-4D40-A4D1-27DE9F4834BF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57953852-0071-4101-98A5-0E6353E0004A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6BE2D2D-29D0-4A64-9CC6-87F8DB1073AC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E8A85E6-E369-4AA4-968C-017397E69909}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61952216-0CBA-4FB1-BA6D-8D1080CAF04E}">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" activeCellId="1" sqref="A3:A15 C3:J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="15">
+        <v>10581277</v>
+      </c>
+      <c r="C4" s="14">
+        <v>430888</v>
+      </c>
+      <c r="D4" s="14">
+        <v>3924869</v>
+      </c>
+      <c r="E4" s="14">
+        <v>2521226</v>
+      </c>
+      <c r="F4" s="14">
+        <v>2849368</v>
+      </c>
+      <c r="G4" s="14">
+        <v>95403</v>
+      </c>
+      <c r="H4" s="14">
+        <v>86024</v>
+      </c>
+      <c r="I4" s="16">
+        <v>101143</v>
+      </c>
+      <c r="J4" s="16">
+        <v>572356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="15">
+        <v>10226887</v>
+      </c>
+      <c r="C5" s="14">
+        <v>416677</v>
+      </c>
+      <c r="D5" s="14">
+        <v>3747664</v>
+      </c>
+      <c r="E5" s="14">
+        <v>2389908</v>
+      </c>
+      <c r="F5" s="14">
+        <v>2811920</v>
+      </c>
+      <c r="G5" s="14">
+        <v>106457</v>
+      </c>
+      <c r="H5" s="14">
+        <v>91797</v>
+      </c>
+      <c r="I5" s="16">
+        <v>100589</v>
+      </c>
+      <c r="J5" s="16">
+        <v>561875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="15">
+        <v>7404079</v>
+      </c>
+      <c r="C6" s="14">
+        <v>326793</v>
+      </c>
+      <c r="D6" s="14">
+        <v>2739895</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1761833</v>
+      </c>
+      <c r="F6" s="14">
+        <v>1952105</v>
+      </c>
+      <c r="G6" s="14">
+        <v>81588</v>
+      </c>
+      <c r="H6" s="14">
+        <v>65628</v>
+      </c>
+      <c r="I6" s="16">
+        <v>71138</v>
+      </c>
+      <c r="J6" s="16">
+        <v>405099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="15">
+        <v>3652227</v>
+      </c>
+      <c r="C7" s="14">
+        <v>217329</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1310620</v>
+      </c>
+      <c r="E7" s="14">
+        <v>993733</v>
+      </c>
+      <c r="F7" s="14">
+        <v>729644</v>
+      </c>
+      <c r="G7" s="14">
+        <v>51546</v>
+      </c>
+      <c r="H7" s="14">
+        <v>21670</v>
+      </c>
+      <c r="I7" s="16">
+        <v>21504</v>
+      </c>
+      <c r="J7" s="16">
+        <v>306181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="15">
+        <v>4900798</v>
+      </c>
+      <c r="C8" s="14">
+        <v>274729</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1792593</v>
+      </c>
+      <c r="E8" s="14">
+        <v>1288824</v>
+      </c>
+      <c r="F8" s="14">
+        <v>1043349</v>
+      </c>
+      <c r="G8" s="14">
+        <v>54173</v>
+      </c>
+      <c r="H8" s="14">
+        <v>31568</v>
+      </c>
+      <c r="I8" s="16">
+        <v>34064</v>
+      </c>
+      <c r="J8" s="16">
+        <v>381498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="15">
+        <v>5266194</v>
+      </c>
+      <c r="C9" s="14">
+        <v>224091</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1955719</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1251133</v>
+      </c>
+      <c r="F9" s="14">
+        <v>1245162</v>
+      </c>
+      <c r="G9" s="14">
+        <v>46440</v>
+      </c>
+      <c r="H9" s="14">
+        <v>41247</v>
+      </c>
+      <c r="I9" s="16">
+        <v>44799</v>
+      </c>
+      <c r="J9" s="16">
+        <v>457603</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="15">
+        <v>5383861</v>
+      </c>
+      <c r="C10" s="14">
+        <v>210075</v>
+      </c>
+      <c r="D10" s="14">
+        <v>2051444</v>
+      </c>
+      <c r="E10" s="14">
+        <v>1264376</v>
+      </c>
+      <c r="F10" s="14">
+        <v>1305332</v>
+      </c>
+      <c r="G10" s="14">
+        <v>49016</v>
+      </c>
+      <c r="H10" s="14">
+        <v>49045</v>
+      </c>
+      <c r="I10" s="16">
+        <v>48340</v>
+      </c>
+      <c r="J10" s="16">
+        <v>406233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="15">
+        <v>6214555</v>
+      </c>
+      <c r="C11" s="14">
+        <v>258174</v>
+      </c>
+      <c r="D11" s="14">
+        <v>2390042</v>
+      </c>
+      <c r="E11" s="14">
+        <v>1493055</v>
+      </c>
+      <c r="F11" s="14">
+        <v>1481273</v>
+      </c>
+      <c r="G11" s="14">
+        <v>39416</v>
+      </c>
+      <c r="H11" s="14">
+        <v>70562</v>
+      </c>
+      <c r="I11" s="16">
+        <v>69221</v>
+      </c>
+      <c r="J11" s="16">
+        <v>412812</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="15">
+        <v>7023769</v>
+      </c>
+      <c r="C12" s="14">
+        <v>293654</v>
+      </c>
+      <c r="D12" s="14">
+        <v>2731068</v>
+      </c>
+      <c r="E12" s="14">
+        <v>1729545</v>
+      </c>
+      <c r="F12" s="14">
+        <v>1604939</v>
+      </c>
+      <c r="G12" s="14">
+        <v>46869</v>
+      </c>
+      <c r="H12" s="14">
+        <v>71222</v>
+      </c>
+      <c r="I12" s="16">
+        <v>84695</v>
+      </c>
+      <c r="J12" s="16">
+        <v>461777</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="15">
+        <v>7988781</v>
+      </c>
+      <c r="C13" s="14">
+        <v>337984</v>
+      </c>
+      <c r="D13" s="14">
+        <v>3106689</v>
+      </c>
+      <c r="E13" s="14">
+        <v>1962750</v>
+      </c>
+      <c r="F13" s="14">
+        <v>1872951</v>
+      </c>
+      <c r="G13" s="14">
+        <v>47624</v>
+      </c>
+      <c r="H13" s="14">
+        <v>85186</v>
+      </c>
+      <c r="I13" s="16">
+        <v>101540</v>
+      </c>
+      <c r="J13" s="16">
+        <v>474057</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="15">
+        <v>8789647</v>
+      </c>
+      <c r="C14" s="14">
+        <v>377756</v>
+      </c>
+      <c r="D14" s="14">
+        <v>3391510</v>
+      </c>
+      <c r="E14" s="14">
+        <v>2142765</v>
+      </c>
+      <c r="F14" s="14">
+        <v>2154190</v>
+      </c>
+      <c r="G14" s="14">
+        <v>49566</v>
+      </c>
+      <c r="H14" s="14">
+        <v>95457</v>
+      </c>
+      <c r="I14" s="16">
+        <v>116790</v>
+      </c>
+      <c r="J14" s="16">
+        <v>461613</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="15">
+        <v>9804849</v>
+      </c>
+      <c r="C15" s="14">
+        <v>442221</v>
+      </c>
+      <c r="D15" s="14">
+        <v>3812845</v>
+      </c>
+      <c r="E15" s="14">
+        <v>2450621</v>
+      </c>
+      <c r="F15" s="14">
+        <v>2350649</v>
+      </c>
+      <c r="G15" s="14">
+        <v>51387</v>
+      </c>
+      <c r="H15" s="14">
+        <v>104968</v>
+      </c>
+      <c r="I15" s="16">
+        <v>123128</v>
+      </c>
+      <c r="J15" s="16">
+        <v>469030</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACE918C-3589-4ADB-9892-92D1209967DF}">
   <dimension ref="A2:G8"/>
@@ -5515,7 +12373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A66578-0850-4D1C-A167-F5DC6559DB34}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -5924,4 +12782,473 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F41DD5EF-117D-4750-9CA9-CC90020CA1C8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D830C5A4-ACD0-4DF0-8136-15E1CF16D67A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13877B3A-D21C-48D5-9DBE-94E359B07113}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC38872-5F51-468B-B466-A2E687E2461D}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="5">
+        <v>93718</v>
+      </c>
+      <c r="C3" s="7">
+        <v>57801</v>
+      </c>
+      <c r="D3" s="7">
+        <v>35917</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="5">
+        <v>84466</v>
+      </c>
+      <c r="C4" s="7">
+        <v>55263</v>
+      </c>
+      <c r="D4" s="7">
+        <v>29203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="5">
+        <v>82271</v>
+      </c>
+      <c r="C5" s="7">
+        <v>46996</v>
+      </c>
+      <c r="D5" s="7">
+        <v>35275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="10">
+        <f>SUM(C6:D6)</f>
+        <v>12420</v>
+      </c>
+      <c r="C6" s="9">
+        <v>5249</v>
+      </c>
+      <c r="D6" s="9">
+        <v>7171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="10">
+        <v>11598</v>
+      </c>
+      <c r="C7" s="9">
+        <v>5332</v>
+      </c>
+      <c r="D7" s="9">
+        <v>6266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="10">
+        <f>SUM(C8:D8)</f>
+        <v>10551</v>
+      </c>
+      <c r="C8" s="9">
+        <v>4581</v>
+      </c>
+      <c r="D8" s="9">
+        <v>5970</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="10">
+        <v>10312</v>
+      </c>
+      <c r="C9" s="9">
+        <v>4451</v>
+      </c>
+      <c r="D9" s="9">
+        <v>5861</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="10">
+        <f>SUM(C10:D10)</f>
+        <v>11501</v>
+      </c>
+      <c r="C10" s="9">
+        <v>5837</v>
+      </c>
+      <c r="D10" s="9">
+        <v>5664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="10">
+        <v>11509</v>
+      </c>
+      <c r="C11" s="9">
+        <v>4839</v>
+      </c>
+      <c r="D11" s="9">
+        <v>6670</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="10">
+        <v>11424</v>
+      </c>
+      <c r="C12" s="9">
+        <v>5473</v>
+      </c>
+      <c r="D12" s="9">
+        <v>5951</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="10">
+        <v>12515</v>
+      </c>
+      <c r="C13" s="9">
+        <v>6663</v>
+      </c>
+      <c r="D13" s="9">
+        <v>5852</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="10">
+        <v>13607</v>
+      </c>
+      <c r="C14" s="9">
+        <v>7880</v>
+      </c>
+      <c r="D14" s="9">
+        <v>5727</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2D9320-644E-48A7-92FF-4321EF168017}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="1">
+        <v>520</v>
+      </c>
+      <c r="C4" s="1">
+        <v>474</v>
+      </c>
+      <c r="D4" s="18">
+        <f>C4/B4</f>
+        <v>0.91153846153846152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="1">
+        <v>80</v>
+      </c>
+      <c r="C5" s="1">
+        <v>56</v>
+      </c>
+      <c r="D5" s="18">
+        <f t="shared" ref="D5:D10" si="0">C5/B5</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="1">
+        <v>149</v>
+      </c>
+      <c r="C6" s="1">
+        <v>120</v>
+      </c>
+      <c r="D6" s="18">
+        <f t="shared" si="0"/>
+        <v>0.80536912751677847</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="1">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1">
+        <v>14</v>
+      </c>
+      <c r="D7" s="18">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="18">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="1">
+        <v>778</v>
+      </c>
+      <c r="C10" s="1">
+        <v>672</v>
+      </c>
+      <c r="D10" s="18">
+        <f t="shared" si="0"/>
+        <v>0.86375321336760924</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678EF217-D7FD-4496-B8C1-47C374B2318F}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="G1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+    </row>
+    <row r="5" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="23"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Trabajo Integrador - ESTADISTICA.xlsx
+++ b/Trabajo Integrador - ESTADISTICA.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BGH\OneDrive\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC 345\Desktop\Estadistica\TP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B614D7-F924-45F1-AAD8-AF1AF425B945}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E19BD7D-2FD5-49EB-A076-544AB235ACCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="9" xr2:uid="{9BEEDAED-CD1B-4E47-8A29-1192471C5EC3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{9BEEDAED-CD1B-4E47-8A29-1192471C5EC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio A" sheetId="1" r:id="rId1"/>
     <sheet name="Ejercicio B" sheetId="2" r:id="rId2"/>
     <sheet name="Ejercicio C" sheetId="3" r:id="rId3"/>
-    <sheet name="Ejercicio D" sheetId="4" r:id="rId4"/>
-    <sheet name="Ejercicio E" sheetId="5" r:id="rId5"/>
-    <sheet name="Ejercicio F" sheetId="6" r:id="rId6"/>
+    <sheet name="Ejercicio_D" sheetId="17" r:id="rId4"/>
+    <sheet name="Ejercicio_E" sheetId="18" r:id="rId5"/>
+    <sheet name="Ejercicio_F" sheetId="19" r:id="rId6"/>
     <sheet name="Ejercicio G" sheetId="7" r:id="rId7"/>
     <sheet name="Ejercicio H" sheetId="8" r:id="rId8"/>
     <sheet name="Ejercicio I" sheetId="9" r:id="rId9"/>
@@ -29,7 +29,7 @@
     <sheet name="Ejercicio N" sheetId="14" r:id="rId14"/>
     <sheet name="Ejercicio O" sheetId="15" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="119">
   <si>
     <t>Barcelona SC</t>
   </si>
@@ -321,6 +321,84 @@
   <si>
     <t>Partido Politico</t>
   </si>
+  <si>
+    <t>Femenino</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>Total de votos</t>
+  </si>
+  <si>
+    <t>Ficción</t>
+  </si>
+  <si>
+    <t>Drama</t>
+  </si>
+  <si>
+    <t>Romance</t>
+  </si>
+  <si>
+    <t>Acción</t>
+  </si>
+  <si>
+    <t>Comedia</t>
+  </si>
+  <si>
+    <t>Genero</t>
+  </si>
+  <si>
+    <t>FullStack</t>
+  </si>
+  <si>
+    <t>Backend</t>
+  </si>
+  <si>
+    <t>Frontend</t>
+  </si>
+  <si>
+    <t>Día 10</t>
+  </si>
+  <si>
+    <t>Día 09</t>
+  </si>
+  <si>
+    <t>Día 08</t>
+  </si>
+  <si>
+    <t>Día 07</t>
+  </si>
+  <si>
+    <t>Día 06</t>
+  </si>
+  <si>
+    <t>Día 05</t>
+  </si>
+  <si>
+    <t>Día 04</t>
+  </si>
+  <si>
+    <t>Día 03</t>
+  </si>
+  <si>
+    <t>Día 02</t>
+  </si>
+  <si>
+    <t>Día 01</t>
+  </si>
+  <si>
+    <t>Estantes</t>
+  </si>
+  <si>
+    <t>Mesas</t>
+  </si>
+  <si>
+    <t>Sillas</t>
+  </si>
+  <si>
+    <t>Dias</t>
+  </si>
 </sst>
 </file>
 
@@ -337,10 +415,10 @@
     <numFmt numFmtId="169" formatCode="&quot;$&quot;#."/>
     <numFmt numFmtId="170" formatCode="_-* #,##0\ _P_t_s_-;\-* #,##0\ _P_t_s_-;_-* &quot;-&quot;??\ _P_t_s_-;_-@_-"/>
     <numFmt numFmtId="171" formatCode="_(&quot;N$&quot;* #,##0_);_(&quot;N$&quot;* \(#,##0\);_(&quot;N$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="#,##0.0"/>
+    <numFmt numFmtId="172" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="173" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -608,6 +686,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="38">
@@ -986,7 +1072,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="119">
+  <cellStyleXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1121,7 +1207,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -1171,8 +1257,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1213,26 +1300,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1254,10 +1326,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="94" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1273,8 +1345,29 @@
     <xf numFmtId="3" fontId="17" fillId="0" borderId="4" xfId="94" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="11" borderId="8" xfId="119" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="119">
+  <cellStyles count="120">
     <cellStyle name="20% - Énfasis1 2" xfId="39" xr:uid="{046840A0-F8A9-4629-AD58-44E0E6A614D3}"/>
     <cellStyle name="20% - Énfasis2 2" xfId="40" xr:uid="{E7E94C5D-958E-47D0-B2F5-604E59C8C372}"/>
     <cellStyle name="20% - Énfasis3 2" xfId="41" xr:uid="{4DA80323-3C66-4644-8F14-A6BA04846E34}"/>
@@ -1298,6 +1391,7 @@
     <cellStyle name="Cabecera 2" xfId="3" xr:uid="{DF579B59-A246-4FD8-81B7-296F063C28AD}"/>
     <cellStyle name="Cabezal" xfId="4" xr:uid="{F992413B-EFCC-4AE6-B789-CA66E2FF8A40}"/>
     <cellStyle name="Cabezal 2" xfId="58" xr:uid="{85A681AF-7D5B-44BB-B1E7-2BAD23B72AAA}"/>
+    <cellStyle name="Cálculo" xfId="119" builtinId="22"/>
     <cellStyle name="Cálculo 2" xfId="59" xr:uid="{380178FC-FEAA-47CB-AED0-27CD423E0E5D}"/>
     <cellStyle name="Celda de comprobación 2" xfId="60" xr:uid="{A525EE57-2861-420B-A1D7-71BE0E1073E9}"/>
     <cellStyle name="Celda vinculada 2" xfId="61" xr:uid="{F57303AE-E942-4A2D-9E7F-FEEC2907F89D}"/>
@@ -1395,31 +1489,70 @@
     <cellStyle name="Total 2" xfId="116" xr:uid="{D0311698-D434-4C85-8CF9-F77C225BA8A3}"/>
     <cellStyle name="totcuadro" xfId="38" xr:uid="{9752FB02-CF08-480B-B7A2-35D76D0C2870}"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="57">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1497,7 +1630,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="177" formatCode="#,##0.0"/>
+      <numFmt numFmtId="173" formatCode="#,##0.0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1559,17 +1692,42 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -4214,6 +4372,2450 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>Categorias de peliculas favoritas por genero</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ejercicio_D!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ficción</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ejercicio_D!$B$4:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Masculino</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Femenino</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ejercicio_D!$G$4:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-75D2-4C0B-9CCD-FC1CF521BA7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ejercicio_D!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Drama</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ejercicio_D!$B$4:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Masculino</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Femenino</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ejercicio_D!$F$4:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-75D2-4C0B-9CCD-FC1CF521BA7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ejercicio_D!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Romance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ejercicio_D!$B$4:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Masculino</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Femenino</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ejercicio_D!$E$4:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>480</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-75D2-4C0B-9CCD-FC1CF521BA7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ejercicio_D!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Acción</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ejercicio_D!$B$4:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Masculino</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Femenino</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ejercicio_D!$D$4:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-75D2-4C0B-9CCD-FC1CF521BA7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ejercicio_D!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Comedia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ejercicio_D!$B$4:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Masculino</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Femenino</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ejercicio_D!$C$4:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-75D2-4C0B-9CCD-FC1CF521BA7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="491039328"/>
+        <c:axId val="491040640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="491039328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="491040640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="491040640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="550"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="491039328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>Generos por area de IT</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ejercicio_E!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frontend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ejercicio_E!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Masculino</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Femenino</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ejercicio_E!$C$3:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-15FD-41DD-A5B9-CB25E67FE403}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ejercicio_E!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Backend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ejercicio_E!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Masculino</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Femenino</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ejercicio_E!$D$3:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-15FD-41DD-A5B9-CB25E67FE403}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ejercicio_E!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FullStack</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ejercicio_E!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Masculino</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Femenino</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ejercicio_E!$E$3:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-15FD-41DD-A5B9-CB25E67FE403}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="452986192"/>
+        <c:axId val="452986848"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="452986192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="452986848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="452986848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="16000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Cantidad</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-AR" baseline="0"/>
+                  <a:t> de personas</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="452986192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.3180310008418754E-2"/>
+          <c:y val="0.14856481481481482"/>
+          <c:w val="0.86185740933326727"/>
+          <c:h val="7.8125546806649168E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>Ventas diarias</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ejercicio_F!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sillas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ejercicio_F!$A$6:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Día 01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Día 02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Día 03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Día 04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Día 05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Día 06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Día 07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Día 08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Día 09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Día 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ejercicio_F!$B$6:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-79E0-471F-A337-DE391CFA7DB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ejercicio_F!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mesas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ejercicio_F!$A$6:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Día 01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Día 02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Día 03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Día 04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Día 05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Día 06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Día 07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Día 08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Día 09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Día 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ejercicio_F!$C$6:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-79E0-471F-A337-DE391CFA7DB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ejercicio_F!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estantes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ejercicio_F!$A$6:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Día 01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Día 02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Día 03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Día 04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Día 05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Día 06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Día 07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Día 08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Día 09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Día 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ejercicio_F!$D$6:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-79E0-471F-A337-DE391CFA7DB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="503410288"/>
+        <c:axId val="503415536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="503410288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="503415536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="503415536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Porcentajes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="503410288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.4438637648170061E-2"/>
+          <c:y val="0.10175184457254254"/>
+          <c:w val="0.85112272470365979"/>
+          <c:h val="5.350808336229522E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
               <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
@@ -4826,7 +7428,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -5867,7 +8469,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -5986,6 +8588,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-178B-4838-A186-EF49C09EA133}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -6005,6 +8612,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-178B-4838-A186-EF49C09EA133}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -6858,6 +9470,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
   <cs:axisTitle>
@@ -8421,6 +11153,1521 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8916,7 +13163,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9412,7 +13659,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10449,6 +14696,670 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A23A7D15-A8B1-4781-9AE0-743BDACD03BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6543676" y="571500"/>
+          <a:ext cx="4362449" cy="3267074"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1600" u="sng"/>
+            <a:t>Grafico de Barras agrupadas</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-AR" sz="1100" u="sng"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100"/>
+            <a:t>El set de</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0"/>
+            <a:t> datos a analizar son de una encuesta que se realizo para averiguar que categoria de peliculas es el favorito de cada genero. Este estudio se realizo con 2400 personas de las cuales la mitad pertenece al genero masculino y la otra mitad al femenino.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0"/>
+            <a:t>Este grafico nos permite comprar de una forma sencilla los dos generos y la cantidad de votos que obtuvo cada categoria de pelicula dentro de cada genero, en el cual el eje vertical nos muestra los dos generos y en el eje horizontal la cantidad de votos, a su vez, cada barra muestra con un numero la cantidad de votos que obtuvo y en el lado derecho se indica que color de barra pertenece a cada categoria de pelicula.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0"/>
+            <a:t>Como podemos observar en el grafico, hay una clara diferencia entre los generos en las categorias de accion y romance en el cual son totalmente opuestos, por otro lado la comedia es una categoria obtuvo una cantidad de votos similares en ambos generos</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100"/>
+            <a:t>Posd: Los</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0"/>
+            <a:t> datos de la encuesta no son reales.</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-AR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>942974</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F50FCC79-6612-46C0-BD9B-E6A438A7E864}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>185736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{005D55FE-5634-4FB8-8806-3712D3DAF63F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23039E67-21BD-4DF8-9AFD-484CCE9A0634}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="466725"/>
+          <a:ext cx="5600700" cy="3429001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1400" u="sng"/>
+            <a:t>Gráfico</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1400" u="sng" baseline="0"/>
+            <a:t> de Barras apiladas</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-AR" sz="1100" u="sng"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" u="none"/>
+            <a:t>En</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" u="none" baseline="0"/>
+            <a:t> este grafico lo que se analizo fue la cantidad de personas que trabajan como Frontend, Backend o FullStack por generos (solo masculino y femenino), siendo un total de 19700 personas las que participaron sin importar la cantidad de experiencia que tengan, ademas inclui el numero de personas por cada area con su respectivo genero dentro de las barras para una mejor visualizacion.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" u="none" baseline="0"/>
+            <a:t>Este grafico nos permite ver el total de personas por generos que trabajan en cada puesto de una forma clara y sencilla. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" u="none" baseline="0"/>
+            <a:t>Podemos observar que hay una clarisima diferencia entre la cantidad de personas del genero masculino y el femenino, siendo el masculino el de mayor cantidad. Tambien podemos observar que dentro del genero femenino el area que mas predomina es el de Frontend y que por otro lado en el genero masculino hay una ligera diferencia entre frontend y backend siendo el backend el de mayor personal.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" u="none" baseline="0"/>
+            <a:t>Otra cosa interesante es que el puesto de FullStack es el que tiene mejor cantidad de personal, esto se debe a que para trabajar en este puesto una persona tiene que saber tanto del Frontend como del Backend y es por esto que es mas dificil obtener este puesto.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-AR" sz="1100" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Posd: Los</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> datos de la encuesta no son reales.</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-AR">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-AR" sz="1100" u="none" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CuadroTexto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC6065AC-87BE-4EF2-831E-59F0A9015BF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="1362075"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-AR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF7920EB-07E9-41D2-9398-2DEB69FF7B00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6F58FF6-E08D-4D5D-A845-0BF0F88FFBB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10134599" y="57149"/>
+          <a:ext cx="2943225" cy="4181476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1400" u="sng"/>
+            <a:t>Grafico de Barras</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1400" u="sng" baseline="0"/>
+            <a:t> 100% apiladas</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-AR" sz="1100" u="sng"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" u="none"/>
+            <a:t>El</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" u="none" baseline="0"/>
+            <a:t> set de datos a analizar son de las ventas de un negocio de carpinteria en el cual solo se analizan las sillas, mesas y estantes.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" u="none" baseline="0"/>
+            <a:t>Este tipo de grafico suma todas las ventas del dia y les da un porcentaje sobre el total de ventas a cada producto (silla/mesa/estante) para poder graficarlas. A diferencia del grafico de barras apiladas, la longitud de las barras siempre es la misma, ya que se analiza el 100% del total de productos vendidos por dia y no el total de productos vendidos por dia.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" u="none" baseline="0"/>
+            <a:t>En el eje vertical se indican los dias y en el eje horizontal los porcentajes, dentro de cada barra indico la cantidad de unidades que se vendieron por producto. En la perte superior indico a que color pertenece cada producto.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" u="none"/>
+            <a:t>Como se puede observar</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" u="none" baseline="0"/>
+            <a:t> en el dia 4 solo se vendieron 2 sillas, y por ende el color del producto de la silla ocupa el 100% del total.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-AR" sz="1100" u="none"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" u="none"/>
+            <a:t>Posd: Los datos de ventas no son reales.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>23811</xdr:colOff>
       <xdr:row>15</xdr:row>
@@ -10578,7 +15489,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10722,7 +15633,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10856,7 +15767,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA70EE74-2845-411E-85C0-74EF1181EBFA}" name="Tabla1" displayName="Tabla1" ref="A3:F7" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA70EE74-2845-411E-85C0-74EF1181EBFA}" name="Tabla1" displayName="Tabla1" ref="A3:F7" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
   <autoFilter ref="A3:F7" xr:uid="{C3F4AB0B-5931-45A7-93BC-F739FA159781}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -10866,19 +15777,19 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3C04CA18-05DB-4A6B-8DA4-86A2A40574A7}" name="Grupo C" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{47B2EACF-0F5D-48B5-A6D8-0378A91E5187}" name="P. Jugados" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{E5C01BF3-4184-4FF7-98AE-84C82E481E24}" name="P. Ganados" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{9D13C9A0-5522-4FE4-A917-7B0AA122A07C}" name="P.Empatados" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{ED8FC679-0648-4334-A74A-64ADC62D0F32}" name="P. Perdidos" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{428F2E39-C0B8-48C7-912A-89820936D1B1}" name="Puntos" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{3C04CA18-05DB-4A6B-8DA4-86A2A40574A7}" name="Grupo C" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{47B2EACF-0F5D-48B5-A6D8-0378A91E5187}" name="P. Jugados" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{E5C01BF3-4184-4FF7-98AE-84C82E481E24}" name="P. Ganados" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{9D13C9A0-5522-4FE4-A917-7B0AA122A07C}" name="P.Empatados" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{ED8FC679-0648-4334-A74A-64ADC62D0F32}" name="P. Perdidos" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{428F2E39-C0B8-48C7-912A-89820936D1B1}" name="Puntos" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A22FB04D-1C11-44D1-8E0B-82A3C3851376}" name="Tabla3" displayName="Tabla3" ref="A2:G8" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A22FB04D-1C11-44D1-8E0B-82A3C3851376}" name="Tabla3" displayName="Tabla3" ref="A2:G8" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
   <autoFilter ref="A2:G8" xr:uid="{EB4F7FFD-161C-450E-A499-646F4BE0FD92}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -10889,13 +15800,13 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{DE55EDDD-3599-4181-A136-EC4D58FDD321}" name="Paises" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{5BAA4E32-E58D-4230-A432-C94375993445}" name="2005" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{57C95A93-7E46-4B82-A0E9-11A6910D92E7}" name="2006" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{BBE4D19F-8F6C-415E-B58D-4624B7075943}" name="2007" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{2013D417-618C-43C4-B153-5A5F92C74DA1}" name="2008" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{C26FDAA8-02BA-476A-8C24-02B226EA7C45}" name="2009" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{D1980F3E-C9F5-4AA8-AC23-A4C5DB8523B4}" name="2010" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{DE55EDDD-3599-4181-A136-EC4D58FDD321}" name="Paises" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{5BAA4E32-E58D-4230-A432-C94375993445}" name="2005" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{57C95A93-7E46-4B82-A0E9-11A6910D92E7}" name="2006" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{BBE4D19F-8F6C-415E-B58D-4624B7075943}" name="2007" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{2013D417-618C-43C4-B153-5A5F92C74DA1}" name="2008" dataDxfId="42"/>
+    <tableColumn id="6" xr3:uid="{C26FDAA8-02BA-476A-8C24-02B226EA7C45}" name="2009" dataDxfId="41"/>
+    <tableColumn id="7" xr3:uid="{D1980F3E-C9F5-4AA8-AC23-A4C5DB8523B4}" name="2010" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10924,6 +15835,70 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{13A3BB1E-1117-4ABC-B86E-602B0FEF821F}" name="Tabla4" displayName="Tabla4" ref="B3:H5" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="B3:H5" xr:uid="{BBDBFBD9-A5D0-4D10-9EB0-531CA0A7129F}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{89BCC604-0581-4D36-B098-E54E7F57A83A}" name="Genero" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{766C8523-4F8F-49AB-BCF1-F97767EE3C1D}" name="Comedia" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{AA143762-C3E4-4D63-90AA-BDD8DC6A9DF4}" name="Acción" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{EA67FB46-093E-45E9-8758-C9038AB56A5A}" name="Romance" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{C03F3EA2-F9AF-4F41-9BF5-B0C847A3D267}" name="Drama" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{F2ACBFE3-C838-468E-B970-A08A449A4052}" name="Ficción" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{DAAECBBA-69B3-4124-BEC9-9EF1D6EAE297}" name="Total de votos" dataDxfId="12">
+      <calculatedColumnFormula>SUM(Tabla4[[#This Row],[Comedia]:[Ficción]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4F8E5B0F-63D4-4B7B-91FD-F49BAEDA832C}" name="Datos" displayName="Datos" ref="C2:F5" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowCellStyle="Cálculo" dataCellStyle="Cálculo">
+  <autoFilter ref="C2:F5" xr:uid="{CC862DF9-411F-4EF3-BB56-9DD62E157C06}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{9EE73A82-D484-45F1-BAC9-89D5D7E6569F}" name="Frontend" dataDxfId="9" dataCellStyle="Cálculo"/>
+    <tableColumn id="2" xr3:uid="{ADD15251-E9ED-4C64-82EB-DEFD96A29D46}" name="Backend" dataDxfId="8" dataCellStyle="Cálculo"/>
+    <tableColumn id="3" xr3:uid="{B1F4E817-D535-4471-BE0F-8E335757ED2E}" name="FullStack" dataDxfId="7" dataCellStyle="Cálculo"/>
+    <tableColumn id="4" xr3:uid="{EEFA34B2-3DA6-4E5F-9430-CD39A29B6604}" name="Total" dataDxfId="6" dataCellStyle="Cálculo">
+      <calculatedColumnFormula>SUM(Datos[[#This Row],[Frontend]:[FullStack]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D24C0555-C7FA-4BC5-8CED-1E321649A069}" name="Tabla610" displayName="Tabla610" ref="A5:D15" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A5:D15" xr:uid="{A10BC077-1FCC-41AE-AB5F-75D6CD5BDF53}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{08722114-A05D-4D5A-870E-FA0062D548A4}" name="Dias" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{5B1AF7D4-452B-4318-81B6-FA078CA0E733}" name="Sillas" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{224CD78A-1FBE-41B1-95CA-3A4741D9D616}" name="Mesas" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{46F756A9-1290-4B15-9A48-546412E1AA44}" name="Estantes" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{12AB6280-9D9B-4138-B0C0-59933C2E9AB8}" name="Tabla5" displayName="Tabla5" ref="A2:D14" totalsRowShown="0">
   <autoFilter ref="A2:D14" xr:uid="{5C1A4C2F-9036-4CD0-AAC1-2E159DB4E5E3}">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -10932,17 +15907,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{42C02FDF-1470-4744-9499-DBBB110F95BC}" name="Año" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{1DF19E8A-8298-4F3D-AB43-BBE45D949D0B}" name="Total" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{69F22244-5660-4369-85F8-54598BB08C73}" name="Argentinos" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{0FF69E63-A9A1-4702-86C7-08F887C3F169}" name="Extranjeros" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{42C02FDF-1470-4744-9499-DBBB110F95BC}" name="Año" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{1DF19E8A-8298-4F3D-AB43-BBE45D949D0B}" name="Total" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{69F22244-5660-4369-85F8-54598BB08C73}" name="Argentinos" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{0FF69E63-A9A1-4702-86C7-08F887C3F169}" name="Extranjeros" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D76F97B7-DF26-4FC7-8A89-7DB58854A5F3}" name="Tabla6" displayName="Tabla6" ref="A3:D10" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D76F97B7-DF26-4FC7-8A89-7DB58854A5F3}" name="Tabla6" displayName="Tabla6" ref="A3:D10" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A3:D10" xr:uid="{1E7D12E3-55C8-4805-A343-B3C63E37C6E0}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -10950,10 +15925,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{25B18C15-7970-4D49-BB0A-71BAE72D61CE}" name="Competicion" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{76DD5DD5-8050-4D73-A99A-BD9063923F41}" name="Partidos" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{48BB04D2-0EAC-4A2F-887E-EC0BDD8649CC}" name="Goles" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{AE2E073F-DC90-42DA-BB0D-8532021C4B88}" name="Promedio" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{25B18C15-7970-4D49-BB0A-71BAE72D61CE}" name="Competicion" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{76DD5DD5-8050-4D73-A99A-BD9063923F41}" name="Partidos" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{48BB04D2-0EAC-4A2F-887E-EC0BDD8649CC}" name="Goles" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{AE2E073F-DC90-42DA-BB0D-8532021C4B88}" name="Promedio" dataDxfId="30">
       <calculatedColumnFormula>C4/B4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10961,8 +15936,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3102CCC1-973E-4F1F-8C5A-EEABCC15030E}" name="Tabla8" displayName="Tabla8" ref="A2:F13" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="8">
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3102CCC1-973E-4F1F-8C5A-EEABCC15030E}" name="Tabla8" displayName="Tabla8" ref="A2:F13" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27">
   <autoFilter ref="A2:F13" xr:uid="{F04038A5-189D-45A3-AFE5-C9221502EF9F}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -10972,12 +15947,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A7D9F072-8F05-4ED2-A483-986D36DBFB23}" name="Partido Politico" dataDxfId="6" dataCellStyle="Normal 5"/>
-    <tableColumn id="2" xr3:uid="{9374A983-81D2-44FD-9423-3F54146703D5}" name="Abosluto" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{51CFC167-ABE6-44E7-B1E5-27952AA5A6DC}" name="%" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{FC55FC16-7927-4BA8-8C8B-AB965E811D15}" name="Ciudadano nacido en el país" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{7DF521A7-A010-4289-9C98-4330685DA3B5}" name="Ciudadano extranjero" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{B354B1BA-7884-430A-A43D-4C2CDB36D6E3}" name="Ciudadano privado de libertad" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{A7D9F072-8F05-4ED2-A483-986D36DBFB23}" name="Partido Politico" dataDxfId="26" dataCellStyle="Normal 5"/>
+    <tableColumn id="2" xr3:uid="{9374A983-81D2-44FD-9423-3F54146703D5}" name="Abosluto" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{51CFC167-ABE6-44E7-B1E5-27952AA5A6DC}" name="%" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{FC55FC16-7927-4BA8-8C8B-AB965E811D15}" name="Ciudadano nacido en el país" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{7DF521A7-A010-4289-9C98-4330685DA3B5}" name="Ciudadano extranjero" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{B354B1BA-7884-430A-A43D-4C2CDB36D6E3}" name="Ciudadano privado de libertad" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11409,7 +16384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1F35C1-BF30-4F4F-989F-38F7CE986436}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
@@ -11423,254 +16398,254 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="23" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="24">
         <v>886475</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="30">
         <v>48.08871139232815</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="34">
         <v>884838</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="25">
         <v>1628</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="24">
         <v>614232</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="30">
         <v>33.320314025700114</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="34">
         <v>608840</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="25">
         <v>5214</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="25">
         <v>178</v>
       </c>
-      <c r="H4" s="25"/>
+      <c r="H4" s="39"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="24">
         <v>137519</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="30">
         <v>7.460009026719959</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="34">
         <v>137320</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="25">
         <v>197</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="25">
         <v>2</v>
       </c>
-      <c r="H5" s="26"/>
+      <c r="H5" s="40"/>
     </row>
     <row r="6" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="24">
         <v>83887</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="30">
         <v>4.5506277476163817</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="34">
         <v>83440</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="26">
         <v>434</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="26">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="24">
         <v>58643</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="30">
         <v>3.1812135730621844</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="34">
         <v>58589</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="26">
         <v>53</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="24">
         <v>24484</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="30">
         <v>1.3281863670490004</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="34">
         <v>24386</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="25">
         <v>94</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="25">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="24">
         <v>18234</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="30">
         <v>0.98914189743389458</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="34">
         <v>18172</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="25">
         <v>58</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="25">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="24">
         <v>17602</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="30">
         <v>0.95485772066641506</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="34">
         <v>17503</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="24">
         <v>96</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="24">
         <v>2340</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="30">
         <v>0.12693824942389562</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="34">
         <v>2249</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="24">
         <v>88</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="24">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="24">
         <v>115784</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="35">
         <v>115492</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="25">
         <v>275</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="25">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="27">
         <v>18144</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="36">
         <v>18106</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="25">
         <v>36</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="25">
         <v>2</v>
       </c>
     </row>
@@ -11749,18 +16724,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -12785,38 +17760,375 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F41DD5EF-117D-4750-9CA9-CC90020CA1C8}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10420901-F55D-4673-9F94-C878170E3AB4}">
+  <dimension ref="B3:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="12"/>
+    <col min="2" max="2" width="12" style="12" customWidth="1"/>
+    <col min="3" max="7" width="11.42578125" style="12"/>
+    <col min="8" max="8" width="14.140625" style="12" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="19">
+        <v>330</v>
+      </c>
+      <c r="D4" s="19">
+        <v>450</v>
+      </c>
+      <c r="E4" s="19">
+        <v>90</v>
+      </c>
+      <c r="F4" s="19">
+        <v>155</v>
+      </c>
+      <c r="G4" s="19">
+        <v>175</v>
+      </c>
+      <c r="H4" s="19">
+        <f>SUM(Tabla4[[#This Row],[Comedia]:[Ficción]])</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="19">
+        <v>300</v>
+      </c>
+      <c r="D5" s="19">
+        <v>100</v>
+      </c>
+      <c r="E5" s="19">
+        <v>480</v>
+      </c>
+      <c r="F5" s="19">
+        <v>250</v>
+      </c>
+      <c r="G5" s="19">
+        <v>70</v>
+      </c>
+      <c r="H5" s="19">
+        <f>SUM(Tabla4[[#This Row],[Comedia]:[Ficción]])</f>
+        <v>1200</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D830C5A4-ACD0-4DF0-8136-15E1CF16D67A}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4E61DD-D37B-4E81-81F2-D2A736EE23C8}">
+  <dimension ref="B2:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="43">
+        <v>5800</v>
+      </c>
+      <c r="D3" s="43">
+        <v>6000</v>
+      </c>
+      <c r="E3" s="43">
+        <v>3800</v>
+      </c>
+      <c r="F3" s="43">
+        <f>SUM(Datos[[#This Row],[Frontend]:[FullStack]])</f>
+        <v>15600</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="43">
+        <v>2300</v>
+      </c>
+      <c r="D4" s="43">
+        <v>1100</v>
+      </c>
+      <c r="E4" s="43">
+        <v>700</v>
+      </c>
+      <c r="F4" s="43">
+        <f>SUM(Datos[[#This Row],[Frontend]:[FullStack]])</f>
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="43">
+        <f>SUM(C3:C4)</f>
+        <v>8100</v>
+      </c>
+      <c r="D5" s="43">
+        <f>SUM(D3:D4)</f>
+        <v>7100</v>
+      </c>
+      <c r="E5" s="43">
+        <f>SUM(E3:E4)</f>
+        <v>4500</v>
+      </c>
+      <c r="F5" s="43">
+        <f>SUM(Datos[[#This Row],[Frontend]:[FullStack]])</f>
+        <v>19700</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13877B3A-D21C-48D5-9DBE-94E359B07113}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7CE8C76-7429-48EB-BBD8-A244A5250B4C}">
+  <dimension ref="A5:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="10" width="11.42578125" style="12"/>
+    <col min="11" max="11" width="8.5703125" style="12" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="12" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" style="12" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="19">
+        <v>2</v>
+      </c>
+      <c r="C6" s="19">
+        <v>1</v>
+      </c>
+      <c r="D6" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="19">
+        <v>4</v>
+      </c>
+      <c r="C7" s="19">
+        <v>2</v>
+      </c>
+      <c r="D7" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="19">
+        <v>1</v>
+      </c>
+      <c r="C8" s="19">
+        <v>2</v>
+      </c>
+      <c r="D8" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="19">
+        <v>2</v>
+      </c>
+      <c r="C9" s="19">
+        <v>0</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="19">
+        <v>2</v>
+      </c>
+      <c r="C10" s="19">
+        <v>0</v>
+      </c>
+      <c r="D10" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="19">
+        <v>3</v>
+      </c>
+      <c r="C11" s="19">
+        <v>1</v>
+      </c>
+      <c r="D11" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="19">
+        <v>2</v>
+      </c>
+      <c r="C12" s="19">
+        <v>0</v>
+      </c>
+      <c r="D12" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="19">
+        <v>1</v>
+      </c>
+      <c r="C13" s="19">
+        <v>0</v>
+      </c>
+      <c r="D13" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="19">
+        <v>4</v>
+      </c>
+      <c r="C14" s="19">
+        <v>1</v>
+      </c>
+      <c r="D14" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="19">
+        <v>6</v>
+      </c>
+      <c r="C15" s="19">
+        <v>3</v>
+      </c>
+      <c r="D15" s="19">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -12824,8 +18136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC38872-5F51-468B-B466-A2E687E2461D}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13053,12 +18365,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -13205,44 +18517,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="A1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
       <c r="G1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
     </row>
     <row r="5" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
+      <c r="A5" s="20"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="23"/>
+      <c r="B8" s="22"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Trabajo Integrador - ESTADISTICA.xlsx
+++ b/Trabajo Integrador - ESTADISTICA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BGH\Downloads\DV-Estadistica-TP-main (1)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BGH\Downloads\DV-Estadistica-TP-main (3)\DV-Estadistica-TP-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023A9339-765D-4F07-91CB-30946B1C3C85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC6C06D-65FD-4B27-81DC-5683DD1F316B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="14" xr2:uid="{9BEEDAED-CD1B-4E47-8A29-1192471C5EC3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="10" xr2:uid="{9BEEDAED-CD1B-4E47-8A29-1192471C5EC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio A" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="335">
   <si>
     <t>Barcelona SC</t>
   </si>
@@ -240,9 +240,6 @@
   </si>
   <si>
     <t>Mundial de Clubes</t>
-  </si>
-  <si>
-    <t>https://www.infobae.com/salud/2020/05/13/la-pandemia-por-coronavirus-no-puede-postergar-el-tratamiento-de-otras-enfermedades/</t>
   </si>
   <si>
     <t>Abosluto</t>
@@ -413,15 +410,653 @@
   </si>
   <si>
     <t>Numero de abonados de TV por Cable de la Ciudad de Buenos Aires, Año 2015</t>
+  </si>
+  <si>
+    <t>FORMULAS - AGRUPACIONES POLITICAS</t>
+  </si>
+  <si>
+    <t>VOTOS</t>
+  </si>
+  <si>
+    <t>% POSITIVOS</t>
+  </si>
+  <si>
+    <t>FRENTE DE TODOS</t>
+  </si>
+  <si>
+    <t>JUNTOS POR EL CAMBIO</t>
+  </si>
+  <si>
+    <t>CONSENSO FEDERAL</t>
+  </si>
+  <si>
+    <t>FRENTE DE IZQUIERDA Y DE TRABAJADORES - UNIDAD</t>
+  </si>
+  <si>
+    <t>FRENTE NOS</t>
+  </si>
+  <si>
+    <t>UNITE POR LA LIBERTAD Y LA DIGNIDAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VOTOS EN BLANCO  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VOTOS ANULADOS  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL DE  VOTANTES  </t>
+  </si>
+  <si>
+    <t>Elecciones Presidenciales 2019</t>
+  </si>
+  <si>
+    <t>$36,436.42</t>
+  </si>
+  <si>
+    <t>$35,304.58</t>
+  </si>
+  <si>
+    <t>$35,862.38</t>
+  </si>
+  <si>
+    <t>$28,913,440,585</t>
+  </si>
+  <si>
+    <t>$671,652,557,855</t>
+  </si>
+  <si>
+    <t>$37,917.71</t>
+  </si>
+  <si>
+    <t>$34,900.41</t>
+  </si>
+  <si>
+    <t>$35,551.96</t>
+  </si>
+  <si>
+    <t>$35,959,473,399</t>
+  </si>
+  <si>
+    <t>$665,804,639,833</t>
+  </si>
+  <si>
+    <t>$39,242.49</t>
+  </si>
+  <si>
+    <t>$35,717.72</t>
+  </si>
+  <si>
+    <t>$36,894.41</t>
+  </si>
+  <si>
+    <t>$41,831,090,187</t>
+  </si>
+  <si>
+    <t>$690,915,072,093</t>
+  </si>
+  <si>
+    <t>$39,478.95</t>
+  </si>
+  <si>
+    <t>$37,243.97</t>
+  </si>
+  <si>
+    <t>$39,208.77</t>
+  </si>
+  <si>
+    <t>$35,460,750,427</t>
+  </si>
+  <si>
+    <t>$734,224,332,239</t>
+  </si>
+  <si>
+    <t>$38,231.34</t>
+  </si>
+  <si>
+    <t>$35,966.31</t>
+  </si>
+  <si>
+    <t>$37,575.18</t>
+  </si>
+  <si>
+    <t>$33,070,867,190</t>
+  </si>
+  <si>
+    <t>$703,599,671,425</t>
+  </si>
+  <si>
+    <t>$37,896.74</t>
+  </si>
+  <si>
+    <t>$35,787.09</t>
+  </si>
+  <si>
+    <t>$36,684.92</t>
+  </si>
+  <si>
+    <t>$34,639,423,297</t>
+  </si>
+  <si>
+    <t>$686,891,021,225</t>
+  </si>
+  <si>
+    <t>$37,468.25</t>
+  </si>
+  <si>
+    <t>$34,241.94</t>
+  </si>
+  <si>
+    <t>$37,332.85</t>
+  </si>
+  <si>
+    <t>$39,009,847,639</t>
+  </si>
+  <si>
+    <t>$698,990,486,185</t>
+  </si>
+  <si>
+    <t>$36,400.67</t>
+  </si>
+  <si>
+    <t>$33,520.74</t>
+  </si>
+  <si>
+    <t>$35,678.13</t>
+  </si>
+  <si>
+    <t>$31,646,080,921</t>
+  </si>
+  <si>
+    <t>$667,976,638,398</t>
+  </si>
+  <si>
+    <t>$37,234.50</t>
+  </si>
+  <si>
+    <t>$33,693.93</t>
+  </si>
+  <si>
+    <t>$34,616.07</t>
+  </si>
+  <si>
+    <t>$45,231,013,335</t>
+  </si>
+  <si>
+    <t>$648,061,013,208</t>
+  </si>
+  <si>
+    <t>$38,856.97</t>
+  </si>
+  <si>
+    <t>$34,779.04</t>
+  </si>
+  <si>
+    <t>$35,697.61</t>
+  </si>
+  <si>
+    <t>$55,200,191,952</t>
+  </si>
+  <si>
+    <t>$668,283,930,067</t>
+  </si>
+  <si>
+    <t>$40,379.62</t>
+  </si>
+  <si>
+    <t>$37,247.90</t>
+  </si>
+  <si>
+    <t>$38,436.97</t>
+  </si>
+  <si>
+    <t>$43,210,968,721</t>
+  </si>
+  <si>
+    <t>$719,538,129,128</t>
+  </si>
+  <si>
+    <t>$40,782.08</t>
+  </si>
+  <si>
+    <t>$37,905.83</t>
+  </si>
+  <si>
+    <t>$39,294.20</t>
+  </si>
+  <si>
+    <t>$51,346,735,160</t>
+  </si>
+  <si>
+    <t>$735,556,411,166</t>
+  </si>
+  <si>
+    <t>$39,776.35</t>
+  </si>
+  <si>
+    <t>$36,581.43</t>
+  </si>
+  <si>
+    <t>$38,402.22</t>
+  </si>
+  <si>
+    <t>$56,211,915,803</t>
+  </si>
+  <si>
+    <t>$718,829,377,408</t>
+  </si>
+  <si>
+    <t>$39,835.14</t>
+  </si>
+  <si>
+    <t>$34,551.08</t>
+  </si>
+  <si>
+    <t>$38,705.98</t>
+  </si>
+  <si>
+    <t>$67,359,584,098</t>
+  </si>
+  <si>
+    <t>$724,332,072,424</t>
+  </si>
+  <si>
+    <t>$38,289.22</t>
+  </si>
+  <si>
+    <t>$31,227.34</t>
+  </si>
+  <si>
+    <t>$34,770.58</t>
+  </si>
+  <si>
+    <t>$78,469,274,361</t>
+  </si>
+  <si>
+    <t>$650,686,270,744</t>
+  </si>
+  <si>
+    <t>$38,831.05</t>
+  </si>
+  <si>
+    <t>$35,383.68</t>
+  </si>
+  <si>
+    <t>$37,536.63</t>
+  </si>
+  <si>
+    <t>$57,377,273,240</t>
+  </si>
+  <si>
+    <t>$702,449,253,648</t>
+  </si>
+  <si>
+    <t>$42,172.17</t>
+  </si>
+  <si>
+    <t>$33,616.45</t>
+  </si>
+  <si>
+    <t>$37,304.69</t>
+  </si>
+  <si>
+    <t>$82,051,616,861</t>
+  </si>
+  <si>
+    <t>$698,108,789,817</t>
+  </si>
+  <si>
+    <t>$42,462.98</t>
+  </si>
+  <si>
+    <t>$35,050.62</t>
+  </si>
+  <si>
+    <t>$40,782.74</t>
+  </si>
+  <si>
+    <t>$88,281,943,359</t>
+  </si>
+  <si>
+    <t>$763,195,929,022</t>
+  </si>
+  <si>
+    <t>$43,546.12</t>
+  </si>
+  <si>
+    <t>$30,681.50</t>
+  </si>
+  <si>
+    <t>$37,002.44</t>
+  </si>
+  <si>
+    <t>$126,358,098,747</t>
+  </si>
+  <si>
+    <t>$692,452,570,147</t>
+  </si>
+  <si>
+    <t>$45,812.46</t>
+  </si>
+  <si>
+    <t>$42,367.83</t>
+  </si>
+  <si>
+    <t>$42,909.40</t>
+  </si>
+  <si>
+    <t>$56,187,365,084</t>
+  </si>
+  <si>
+    <t>$802,974,346,863</t>
+  </si>
+  <si>
+    <t>$46,623.56</t>
+  </si>
+  <si>
+    <t>$42,207.29</t>
+  </si>
+  <si>
+    <t>$43,537.51</t>
+  </si>
+  <si>
+    <t>$74,903,638,450</t>
+  </si>
+  <si>
+    <t>$814,701,646,509</t>
+  </si>
+  <si>
+    <t>$49,720.04</t>
+  </si>
+  <si>
+    <t>$43,963.35</t>
+  </si>
+  <si>
+    <t>$46,456.06</t>
+  </si>
+  <si>
+    <t>$64,047,871,555</t>
+  </si>
+  <si>
+    <t>$869,279,076,502</t>
+  </si>
+  <si>
+    <t>$50,639.67</t>
+  </si>
+  <si>
+    <t>$46,664.14</t>
+  </si>
+  <si>
+    <t>$46,760.19</t>
+  </si>
+  <si>
+    <t>$59,161,047,474</t>
+  </si>
+  <si>
+    <t>$874,931,019,742</t>
+  </si>
+  <si>
+    <t>$51,438.12</t>
+  </si>
+  <si>
+    <t>$48,868.58</t>
+  </si>
+  <si>
+    <t>$49,880.53</t>
+  </si>
+  <si>
+    <t>$55,737,497,453</t>
+  </si>
+  <si>
+    <t>$933,276,901,265</t>
+  </si>
+  <si>
+    <t>$51,330.84</t>
+  </si>
+  <si>
+    <t>$46,980.02</t>
+  </si>
+  <si>
+    <t>$49,716.19</t>
+  </si>
+  <si>
+    <t>$96,721,152,926</t>
+  </si>
+  <si>
+    <t>$930,161,010,060</t>
+  </si>
+  <si>
+    <t>$57,939.36</t>
+  </si>
+  <si>
+    <t>$49,150.53</t>
+  </si>
+  <si>
+    <t>$75,215,403,907</t>
+  </si>
+  <si>
+    <t>$919,527,847,950</t>
+  </si>
+  <si>
+    <t>$56,872.54</t>
+  </si>
+  <si>
+    <t>$54,608.65</t>
+  </si>
+  <si>
+    <t>$56,704.57</t>
+  </si>
+  <si>
+    <t>$61,308,396,325</t>
+  </si>
+  <si>
+    <t>$1,060,790,877,192</t>
+  </si>
+  <si>
+    <t>$59,519.35</t>
+  </si>
+  <si>
+    <t>$54,071.46</t>
+  </si>
+  <si>
+    <t>$55,859.80</t>
+  </si>
+  <si>
+    <t>$71,776,546,298</t>
+  </si>
+  <si>
+    <t>$1,044,927,337,818</t>
+  </si>
+  <si>
+    <t>$59,210.88</t>
+  </si>
+  <si>
+    <t>$56,482.00</t>
+  </si>
+  <si>
+    <t>$58,232.32</t>
+  </si>
+  <si>
+    <t>$65,906,690,347</t>
+  </si>
+  <si>
+    <t>$1,089,244,557,676</t>
+  </si>
+  <si>
+    <t>$59,464.61</t>
+  </si>
+  <si>
+    <t>$56,975.21</t>
+  </si>
+  <si>
+    <t>$58,803.78</t>
+  </si>
+  <si>
+    <t>$65,382,980,634</t>
+  </si>
+  <si>
+    <t>$1,099,863,941,004</t>
+  </si>
+  <si>
+    <t>$58,606.63</t>
+  </si>
+  <si>
+    <t>$55,321.85</t>
+  </si>
+  <si>
+    <t>$57,356.40</t>
+  </si>
+  <si>
+    <t>$68,434,023,376</t>
+  </si>
+  <si>
+    <t>$1,072,727,435,210</t>
+  </si>
+  <si>
+    <t>$58,363.31</t>
+  </si>
+  <si>
+    <t>$55,382.51</t>
+  </si>
+  <si>
+    <t>$56,396.51</t>
+  </si>
+  <si>
+    <t>$69,523,285,106</t>
+  </si>
+  <si>
+    <t>$1,054,714,918,675</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Abrir*</t>
+  </si>
+  <si>
+    <t>Elevar</t>
+  </si>
+  <si>
+    <t>Disminuir</t>
+  </si>
+  <si>
+    <t>Cerrar**</t>
+  </si>
+  <si>
+    <t>Volumen</t>
+  </si>
+  <si>
+    <t>Cap. de Mercado</t>
+  </si>
+  <si>
+    <t>Valor de la Moneda Virtual Bitcoin desde el 6 de mayo hasta el 6 de junio del 2021</t>
+  </si>
+  <si>
+    <t>6 de mayo</t>
+  </si>
+  <si>
+    <t>6 de junio</t>
+  </si>
+  <si>
+    <t>5 de junio</t>
+  </si>
+  <si>
+    <t>4 de junio</t>
+  </si>
+  <si>
+    <t>31 de mayo</t>
+  </si>
+  <si>
+    <t>30 de mayo</t>
+  </si>
+  <si>
+    <t>29 de mayo</t>
+  </si>
+  <si>
+    <t>28 de mayo</t>
+  </si>
+  <si>
+    <t>27 de mayo</t>
+  </si>
+  <si>
+    <t>26 de mayo</t>
+  </si>
+  <si>
+    <t>25 de mayo</t>
+  </si>
+  <si>
+    <t>24 de mayo</t>
+  </si>
+  <si>
+    <t>23 de mayo</t>
+  </si>
+  <si>
+    <t>22 de mayo</t>
+  </si>
+  <si>
+    <t>21 de mayo</t>
+  </si>
+  <si>
+    <t>20 de mayo</t>
+  </si>
+  <si>
+    <t>19 de mayo</t>
+  </si>
+  <si>
+    <t>18 de mayo</t>
+  </si>
+  <si>
+    <t>17 de mayo</t>
+  </si>
+  <si>
+    <t>16 de mayo</t>
+  </si>
+  <si>
+    <t>15 de mayo</t>
+  </si>
+  <si>
+    <t>14 de mayo</t>
+  </si>
+  <si>
+    <t>13 de mayo</t>
+  </si>
+  <si>
+    <t>12 de mayo</t>
+  </si>
+  <si>
+    <t>11 de mayo</t>
+  </si>
+  <si>
+    <t>10 de mayo</t>
+  </si>
+  <si>
+    <t>9 de mayo</t>
+  </si>
+  <si>
+    <t>8 de mayo</t>
+  </si>
+  <si>
+    <t>7 de mayo</t>
+  </si>
+  <si>
+    <t>3 de junio</t>
+  </si>
+  <si>
+    <t>2 de junio</t>
+  </si>
+  <si>
+    <t>1 de junio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="16">
     <numFmt numFmtId="5" formatCode="&quot;$&quot;\ #,##0;\-&quot;$&quot;\ #,##0"/>
     <numFmt numFmtId="7" formatCode="&quot;$&quot;\ #,##0.00;\-&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _P_t_s_-;\-* #,##0.00\ _P_t_s_-;_-* &quot;-&quot;??\ _P_t_s_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="mmmm\ yyyy"/>
     <numFmt numFmtId="166" formatCode="#."/>
@@ -432,8 +1067,10 @@
     <numFmt numFmtId="171" formatCode="_(&quot;N$&quot;* #,##0_);_(&quot;N$&quot;* \(#,##0\);_(&quot;N$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="172" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="173" formatCode="#,##0.0"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="190" formatCode="&quot;$&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -716,8 +1353,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -927,8 +1593,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1092,8 +1764,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="120">
+  <cellStyleXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1279,8 +1990,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1312,11 +2025,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1371,6 +2079,11 @@
     <xf numFmtId="3" fontId="18" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1389,13 +2102,77 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="38" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="45" fillId="38" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="45" fillId="38" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="45" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="47" fillId="38" borderId="16" xfId="120" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="45" fillId="4" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="45" fillId="4" borderId="17" xfId="120" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="46" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="120" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="120" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="121" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="120">
+  <cellStyles count="122">
     <cellStyle name="20% - Énfasis1 2" xfId="39" xr:uid="{046840A0-F8A9-4629-AD58-44E0E6A614D3}"/>
     <cellStyle name="20% - Énfasis2 2" xfId="40" xr:uid="{E7E94C5D-958E-47D0-B2F5-604E59C8C372}"/>
     <cellStyle name="20% - Énfasis3 2" xfId="41" xr:uid="{4DA80323-3C66-4644-8F14-A6BA04846E34}"/>
@@ -1463,7 +2240,9 @@
     <cellStyle name="Hipervínculo 3" xfId="72" xr:uid="{22E9AE21-1A39-4217-B127-3D68219231D2}"/>
     <cellStyle name="Hipervínculo 3 2" xfId="73" xr:uid="{0344D39C-CEE4-47B6-A8B6-5A65967C3E1D}"/>
     <cellStyle name="Incorrecto 2" xfId="74" xr:uid="{FD0DE562-C9E3-4DA1-8DC8-6985FCDE2BFB}"/>
+    <cellStyle name="Millares" xfId="120" builtinId="3"/>
     <cellStyle name="Millares 2" xfId="75" xr:uid="{C515BAE9-5295-4CB0-A830-0650F4F44DE0}"/>
+    <cellStyle name="Moneda" xfId="121" builtinId="4"/>
     <cellStyle name="Monetario" xfId="32" xr:uid="{E7D7050B-443F-490E-A6DB-B72A310B625C}"/>
     <cellStyle name="Monetario0" xfId="33" xr:uid="{1E6D92E2-8D93-419C-9C06-B625C42840E4}"/>
     <cellStyle name="Neutral 2" xfId="76" xr:uid="{6E0EE0BE-D02C-48B8-933A-464629BD3F4D}"/>
@@ -1517,10 +2296,10 @@
     <cellStyle name="Total 2" xfId="116" xr:uid="{D0311698-D434-4C85-8CF9-F77C225BA8A3}"/>
     <cellStyle name="totcuadro" xfId="38" xr:uid="{9752FB02-CF08-480B-B7A2-35D76D0C2870}"/>
   </cellStyles>
-  <dxfs count="73">
+  <dxfs count="83">
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1529,20 +2308,37 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="9"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <name val="Arial"/>
+        <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1550,118 +2346,6 @@
           <color indexed="64"/>
         </top>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1822,6 +2506,151 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2887,6 +3716,1360 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ejercicio J'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% POSITIVOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-7E73-4A83-BE7E-3081EAB46715}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7E73-4A83-BE7E-3081EAB46715}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-7E73-4A83-BE7E-3081EAB46715}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-7E73-4A83-BE7E-3081EAB46715}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-7E73-4A83-BE7E-3081EAB46715}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-7E73-4A83-BE7E-3081EAB46715}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-7E73-4A83-BE7E-3081EAB46715}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7E73-4A83-BE7E-3081EAB46715}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.80587725094524E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-7E73-4A83-BE7E-3081EAB46715}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.6308320692416415E-2"/>
+                  <c:y val="-1.171302894624557E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-7E73-4A83-BE7E-3081EAB46715}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.1313437772813158"/>
+                  <c:y val="-5.5360221381973468E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-7E73-4A83-BE7E-3081EAB46715}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.8546809790160191E-2"/>
+                  <c:y val="-6.5900106638792269E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-7E73-4A83-BE7E-3081EAB46715}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.0068208347477501E-2"/>
+                  <c:y val="-8.4744602281887058E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-7E73-4A83-BE7E-3081EAB46715}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.6061655460957717E-3"/>
+                  <c:y val="-9.0995251608239597E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-7E73-4A83-BE7E-3081EAB46715}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.2321546995632342E-2"/>
+                  <c:y val="-0.10178312479923128"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-7E73-4A83-BE7E-3081EAB46715}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.9052410879257036E-2"/>
+                  <c:y val="-8.1991259519970203E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-7E73-4A83-BE7E-3081EAB46715}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="95000"/>
+                      <a:alpha val="54000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ejercicio J'!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>FRENTE DE TODOS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>JUNTOS POR EL CAMBIO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CONSENSO FEDERAL</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FRENTE DE IZQUIERDA Y DE TRABAJADORES - UNIDAD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FRENTE NOS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>UNITE POR LA LIBERTAD Y LA DIGNIDAD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>VOTOS EN BLANCO  </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>VOTOS ANULADOS  </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ejercicio J'!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.47025375613478526</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39272164340904159</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.991021542544149E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1039963245774701E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6634861243209929E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4319233171095161E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6037220046163633E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0831073244882574E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E73-4A83-BE7E-3081EAB46715}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="75"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>Valor del Bitcoin 2021</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw dist="12700" dir="16200000">
+                <a:schemeClr val="lt1"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ejercicio K'!$A$3:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>6 de junio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 de junio</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4 de junio</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 de junio</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2 de junio</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1 de junio</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31 de mayo</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30 de mayo</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29 de mayo</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28 de mayo</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27 de mayo</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26 de mayo</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25 de mayo</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24 de mayo</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23 de mayo</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22 de mayo</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21 de mayo</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20 de mayo</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19 de mayo</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18 de mayo</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17 de mayo</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16 de mayo</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15 de mayo</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14 de mayo</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13 de mayo</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12 de mayo</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11 de mayo</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10 de mayo</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9 de mayo</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8 de mayo</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7 de mayo</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6 de mayo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ejercicio K'!$B$3:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>"$"\ #,##0</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>35538</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36880</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39242</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37293</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35658</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34607</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35684</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38507</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39316</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38392</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38795</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37531</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37371</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40596</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36753</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42944</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43488</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>46415</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>46716</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>49855</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>49682</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>49735</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>56714</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>55847</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>58250</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>58877</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>57352</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>56413</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>57441</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A9AC-4FEC-B5BA-ADBA87D5DEB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1744731456"/>
+        <c:axId val="1744732704"/>
+      </c:areaChart>
+      <c:dateAx>
+        <c:axId val="1744731456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd type="triangle"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1744732704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1744732704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;\ #,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1744731456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
@@ -3308,7 +5491,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -10984,6 +13167,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -11875,14 +14138,14 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
@@ -11893,16 +14156,18 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -11944,7 +14209,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -11999,7 +14264,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -12019,7 +14284,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -12052,7 +14317,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -12216,7 +14481,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -12243,16 +14508,18 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -12309,7 +14576,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -12319,7 +14585,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -12351,6 +14617,1066 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="279">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:innerShdw dist="12700" dir="16200000">
+          <a:schemeClr val="lt1"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:innerShdw dist="12700" dir="16200000">
+          <a:schemeClr val="lt1"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
         <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
@@ -12376,7 +15702,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="321">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17009,6 +20335,293 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>42861</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F15CA409-2655-4CF4-A82B-9466D5321203}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CuadroTexto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26404EA1-C9B5-4C59-9335-8F4725C5A842}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5057775" y="295275"/>
+          <a:ext cx="5781675" cy="1228725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>En</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> el grafico tipo anillo se esta representando el porcentaje que obtuvo los diferentes partidos politicos que participaron de las Elecciones Presidenciales del 2019, con un total de 27.529.896 de votos, Frente de Todos tuvo el 47.03% de los votos, siendo asi el ganador de las elecciones, sacando una brecha de casi 10% de diferencia con el segundo que fue Juntos por el Cambio con un total del 39.27%.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Con una amplia diferencia inferior lo siguen los demas partidos politicos.</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-AR" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>52386</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9C51E91-F2D1-4203-ABA5-2261F39B098A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CuadroTexto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6ADCB8A-F56B-4FE1-87BA-CAED4E0D5A4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="3981450"/>
+          <a:ext cx="6457950" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Utilizando el grafico de area, se busca visualizar como fue cambiando el valor de la moneda virtual, mas conocida como bitcoin, se tomo un rango de un mes</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> para la representación de su valor.  se puede ver un gran impacto negativo desde el 6 de mayo que tuvo picos de casi $60.000 dolares y a partir de ahi vino el derrumbe, cada dia que pasaba su valor fue bajando, perdiendo casi la mitad de su valor, en tan solo un mes.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Hoy su valor ronda en los $35.000 tuvo un leve ascenso de los dias anteriores.  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>19049</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
@@ -17137,7 +20750,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18635,7 +22248,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA70EE74-2845-411E-85C0-74EF1181EBFA}" name="Tabla1" displayName="Tabla1" ref="A3:F7" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA70EE74-2845-411E-85C0-74EF1181EBFA}" name="Tabla1" displayName="Tabla1" ref="A3:F7" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
   <autoFilter ref="A3:F7" xr:uid="{C3F4AB0B-5931-45A7-93BC-F739FA159781}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -18645,19 +22258,59 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3C04CA18-05DB-4A6B-8DA4-86A2A40574A7}" name="Grupo C" dataDxfId="70"/>
-    <tableColumn id="2" xr3:uid="{47B2EACF-0F5D-48B5-A6D8-0378A91E5187}" name="P. Jugados" dataDxfId="69"/>
-    <tableColumn id="3" xr3:uid="{E5C01BF3-4184-4FF7-98AE-84C82E481E24}" name="P. Ganados" dataDxfId="68"/>
-    <tableColumn id="4" xr3:uid="{9D13C9A0-5522-4FE4-A917-7B0AA122A07C}" name="P.Empatados" dataDxfId="67"/>
-    <tableColumn id="5" xr3:uid="{ED8FC679-0648-4334-A74A-64ADC62D0F32}" name="P. Perdidos" dataDxfId="66"/>
-    <tableColumn id="6" xr3:uid="{428F2E39-C0B8-48C7-912A-89820936D1B1}" name="Puntos" dataDxfId="65"/>
+    <tableColumn id="1" xr3:uid="{3C04CA18-05DB-4A6B-8DA4-86A2A40574A7}" name="Grupo C" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{47B2EACF-0F5D-48B5-A6D8-0378A91E5187}" name="P. Jugados" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{E5C01BF3-4184-4FF7-98AE-84C82E481E24}" name="P. Ganados" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{9D13C9A0-5522-4FE4-A917-7B0AA122A07C}" name="P.Empatados" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{ED8FC679-0648-4334-A74A-64ADC62D0F32}" name="P. Perdidos" dataDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{428F2E39-C0B8-48C7-912A-89820936D1B1}" name="Puntos" dataDxfId="75"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{86F332A9-4147-4A18-B723-138F7A81C523}" name="Tabla11" displayName="Tabla11" ref="A2:E6" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{FC8238BA-8E33-4D76-94C4-353843089DBA}" name="Tabla12" displayName="Tabla12" ref="A2:C12" totalsRowShown="0" tableBorderDxfId="9">
+  <autoFilter ref="A2:C12" xr:uid="{4AD8870A-A97A-4BD3-9732-987E008C7B36}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{9C335EFB-3A58-4CDF-8A35-B32CF0C0D4B2}" name="FORMULAS - AGRUPACIONES POLITICAS"/>
+    <tableColumn id="2" xr3:uid="{167C8119-030F-431A-8CA5-75EBB15B4303}" name="VOTOS"/>
+    <tableColumn id="3" xr3:uid="{8EB75C65-C1F5-4088-90DD-F8A6CF4CD181}" name="% POSITIVOS"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{4E895BB7-324E-4C92-B754-990AF6CC3F4A}" name="Tabla13" displayName="Tabla13" ref="A2:G34" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A2:G34" xr:uid="{E268B9F6-A939-4514-AABF-3B727044026A}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{A3537E3D-2DED-40AC-A7A4-21752595E8DA}" name="Fecha" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{7791C62E-482B-4938-AA51-1D976BA48AAF}" name="Abrir*" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{27E21263-9FF8-4CD2-8AEE-0F1959A1FD87}" name="Elevar" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{AA23C9F9-AF46-4199-846E-EAB0583E717C}" name="Disminuir" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{79A6364F-CAB4-42B0-82C8-C4330B0D0EBC}" name="Cerrar**" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{59105A1A-EF38-40EA-B5E1-40EB6B16D38A}" name="Volumen" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{78394165-74D3-400A-95BE-A7F0E005A83F}" name="Cap. de Mercado" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{86F332A9-4147-4A18-B723-138F7A81C523}" name="Tabla11" displayName="Tabla11" ref="A2:E6" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22">
   <autoFilter ref="A2:E6" xr:uid="{52F1878E-D54A-4EB6-85B9-963E25082976}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -18666,18 +22319,18 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{10C8B016-41FC-4FB1-A5D6-83A6679104C4}" name="Periodo" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{52E217AB-B2BF-49C9-9977-96FA7CBB4BF1}" name="TOTAL" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{E238881F-E4CB-4938-8652-A6A00147A343}" name="Ciudad de Buenos aires " dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{5F0F8232-2CE4-4F6F-8A7D-44C0B08F24BB}" name="Resto del Pais1" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{49A3FC6D-4F85-420B-A20D-314E6DB0EDAD}" name="24 partidos" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{10C8B016-41FC-4FB1-A5D6-83A6679104C4}" name="Periodo" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{52E217AB-B2BF-49C9-9977-96FA7CBB4BF1}" name="TOTAL" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{E238881F-E4CB-4938-8652-A6A00147A343}" name="Ciudad de Buenos aires " dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{5F0F8232-2CE4-4F6F-8A7D-44C0B08F24BB}" name="Resto del Pais1" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{49A3FC6D-4F85-420B-A20D-314E6DB0EDAD}" name="24 partidos" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E3F0BA8A-0F69-459B-8107-B67F5B3A7E3E}" name="Tabla10" displayName="Tabla10" ref="A3:D15" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14">
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E3F0BA8A-0F69-459B-8107-B67F5B3A7E3E}" name="Tabla10" displayName="Tabla10" ref="A3:D15" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15">
   <autoFilter ref="A3:D15" xr:uid="{0E4A6975-E437-4BA7-9E43-0B9D7F9FBA6A}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -18685,17 +22338,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E6B84D54-9499-4B9C-B7DD-33F62AB09F7A}" name="Año" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{32621C57-7C75-46AE-A0F5-3DED9F9044A6}" name="Avellaneda" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{92DB3E1A-73EF-4AF7-A222-BEF506D3BBB8}" name="Dellepiane" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{CB534D78-9641-48A0-8E0F-D3C33D6A07CE}" name="Illia" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{E6B84D54-9499-4B9C-B7DD-33F62AB09F7A}" name="Año" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{32621C57-7C75-46AE-A0F5-3DED9F9044A6}" name="Avellaneda" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{92DB3E1A-73EF-4AF7-A222-BEF506D3BBB8}" name="Dellepiane" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{CB534D78-9641-48A0-8E0F-D3C33D6A07CE}" name="Illia" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A22FB04D-1C11-44D1-8E0B-82A3C3851376}" name="Tabla3" displayName="Tabla3" ref="A2:G8" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A22FB04D-1C11-44D1-8E0B-82A3C3851376}" name="Tabla3" displayName="Tabla3" ref="A2:G8" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
   <autoFilter ref="A2:G8" xr:uid="{EB4F7FFD-161C-450E-A499-646F4BE0FD92}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -18706,13 +22359,13 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{DE55EDDD-3599-4181-A136-EC4D58FDD321}" name="Paises" dataDxfId="62"/>
-    <tableColumn id="2" xr3:uid="{5BAA4E32-E58D-4230-A432-C94375993445}" name="2005" dataDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{57C95A93-7E46-4B82-A0E9-11A6910D92E7}" name="2006" dataDxfId="60"/>
-    <tableColumn id="4" xr3:uid="{BBE4D19F-8F6C-415E-B58D-4624B7075943}" name="2007" dataDxfId="59"/>
-    <tableColumn id="5" xr3:uid="{2013D417-618C-43C4-B153-5A5F92C74DA1}" name="2008" dataDxfId="58"/>
-    <tableColumn id="6" xr3:uid="{C26FDAA8-02BA-476A-8C24-02B226EA7C45}" name="2009" dataDxfId="57"/>
-    <tableColumn id="7" xr3:uid="{D1980F3E-C9F5-4AA8-AC23-A4C5DB8523B4}" name="2010" dataDxfId="56"/>
+    <tableColumn id="1" xr3:uid="{DE55EDDD-3599-4181-A136-EC4D58FDD321}" name="Paises" dataDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{5BAA4E32-E58D-4230-A432-C94375993445}" name="2005" dataDxfId="71"/>
+    <tableColumn id="3" xr3:uid="{57C95A93-7E46-4B82-A0E9-11A6910D92E7}" name="2006" dataDxfId="70"/>
+    <tableColumn id="4" xr3:uid="{BBE4D19F-8F6C-415E-B58D-4624B7075943}" name="2007" dataDxfId="69"/>
+    <tableColumn id="5" xr3:uid="{2013D417-618C-43C4-B153-5A5F92C74DA1}" name="2008" dataDxfId="68"/>
+    <tableColumn id="6" xr3:uid="{C26FDAA8-02BA-476A-8C24-02B226EA7C45}" name="2009" dataDxfId="67"/>
+    <tableColumn id="7" xr3:uid="{D1980F3E-C9F5-4AA8-AC23-A4C5DB8523B4}" name="2010" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -18741,7 +22394,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{13A3BB1E-1117-4ABC-B86E-602B0FEF821F}" name="Tabla4" displayName="Tabla4" ref="B3:H5" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{13A3BB1E-1117-4ABC-B86E-602B0FEF821F}" name="Tabla4" displayName="Tabla4" ref="B3:H5" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
   <autoFilter ref="B3:H5" xr:uid="{BBDBFBD9-A5D0-4D10-9EB0-531CA0A7129F}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -18752,13 +22405,13 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{89BCC604-0581-4D36-B098-E54E7F57A83A}" name="Genero" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{766C8523-4F8F-49AB-BCF1-F97767EE3C1D}" name="Comedia" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{AA143762-C3E4-4D63-90AA-BDD8DC6A9DF4}" name="Acción" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{EA67FB46-093E-45E9-8758-C9038AB56A5A}" name="Romance" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{C03F3EA2-F9AF-4F41-9BF5-B0C847A3D267}" name="Drama" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{F2ACBFE3-C838-468E-B970-A08A449A4052}" name="Ficción" dataDxfId="48"/>
-    <tableColumn id="7" xr3:uid="{DAAECBBA-69B3-4124-BEC9-9EF1D6EAE297}" name="Total de votos" dataDxfId="47">
+    <tableColumn id="1" xr3:uid="{89BCC604-0581-4D36-B098-E54E7F57A83A}" name="Genero" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{766C8523-4F8F-49AB-BCF1-F97767EE3C1D}" name="Comedia" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{AA143762-C3E4-4D63-90AA-BDD8DC6A9DF4}" name="Acción" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{EA67FB46-093E-45E9-8758-C9038AB56A5A}" name="Romance" dataDxfId="60"/>
+    <tableColumn id="5" xr3:uid="{C03F3EA2-F9AF-4F41-9BF5-B0C847A3D267}" name="Drama" dataDxfId="59"/>
+    <tableColumn id="6" xr3:uid="{F2ACBFE3-C838-468E-B970-A08A449A4052}" name="Ficción" dataDxfId="58"/>
+    <tableColumn id="7" xr3:uid="{DAAECBBA-69B3-4124-BEC9-9EF1D6EAE297}" name="Total de votos" dataDxfId="57">
       <calculatedColumnFormula>SUM(Tabla4[[#This Row],[Comedia]:[Ficción]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -18767,7 +22420,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4F8E5B0F-63D4-4B7B-91FD-F49BAEDA832C}" name="Datos" displayName="Datos" ref="C2:F5" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45" headerRowCellStyle="Cálculo" dataCellStyle="Cálculo">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4F8E5B0F-63D4-4B7B-91FD-F49BAEDA832C}" name="Datos" displayName="Datos" ref="C2:F5" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55" headerRowCellStyle="Cálculo" dataCellStyle="Cálculo">
   <autoFilter ref="C2:F5" xr:uid="{CC862DF9-411F-4EF3-BB56-9DD62E157C06}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -18775,10 +22428,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9EE73A82-D484-45F1-BAC9-89D5D7E6569F}" name="Frontend" dataDxfId="44" dataCellStyle="Cálculo"/>
-    <tableColumn id="2" xr3:uid="{ADD15251-E9ED-4C64-82EB-DEFD96A29D46}" name="Backend" dataDxfId="43" dataCellStyle="Cálculo"/>
-    <tableColumn id="3" xr3:uid="{B1F4E817-D535-4471-BE0F-8E335757ED2E}" name="FullStack" dataDxfId="42" dataCellStyle="Cálculo"/>
-    <tableColumn id="4" xr3:uid="{EEFA34B2-3DA6-4E5F-9430-CD39A29B6604}" name="Total" dataDxfId="41" dataCellStyle="Cálculo">
+    <tableColumn id="1" xr3:uid="{9EE73A82-D484-45F1-BAC9-89D5D7E6569F}" name="Frontend" dataDxfId="54" dataCellStyle="Cálculo"/>
+    <tableColumn id="2" xr3:uid="{ADD15251-E9ED-4C64-82EB-DEFD96A29D46}" name="Backend" dataDxfId="53" dataCellStyle="Cálculo"/>
+    <tableColumn id="3" xr3:uid="{B1F4E817-D535-4471-BE0F-8E335757ED2E}" name="FullStack" dataDxfId="52" dataCellStyle="Cálculo"/>
+    <tableColumn id="4" xr3:uid="{EEFA34B2-3DA6-4E5F-9430-CD39A29B6604}" name="Total" dataDxfId="51" dataCellStyle="Cálculo">
       <calculatedColumnFormula>SUM(Datos[[#This Row],[Frontend]:[FullStack]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -18787,7 +22440,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D24C0555-C7FA-4BC5-8CED-1E321649A069}" name="Tabla610" displayName="Tabla610" ref="A5:D15" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D24C0555-C7FA-4BC5-8CED-1E321649A069}" name="Tabla610" displayName="Tabla610" ref="A5:D15" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
   <autoFilter ref="A5:D15" xr:uid="{A10BC077-1FCC-41AE-AB5F-75D6CD5BDF53}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -18795,10 +22448,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{08722114-A05D-4D5A-870E-FA0062D548A4}" name="Dias" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{5B1AF7D4-452B-4318-81B6-FA078CA0E733}" name="Sillas" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{224CD78A-1FBE-41B1-95CA-3A4741D9D616}" name="Mesas" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{46F756A9-1290-4B15-9A48-546412E1AA44}" name="Estantes" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{08722114-A05D-4D5A-870E-FA0062D548A4}" name="Dias" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{5B1AF7D4-452B-4318-81B6-FA078CA0E733}" name="Sillas" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{224CD78A-1FBE-41B1-95CA-3A4741D9D616}" name="Mesas" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{46F756A9-1290-4B15-9A48-546412E1AA44}" name="Estantes" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -18813,17 +22466,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{42C02FDF-1470-4744-9499-DBBB110F95BC}" name="Año" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{1DF19E8A-8298-4F3D-AB43-BBE45D949D0B}" name="Total" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{69F22244-5660-4369-85F8-54598BB08C73}" name="Argentinos" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{0FF69E63-A9A1-4702-86C7-08F887C3F169}" name="Extranjeros" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{42C02FDF-1470-4744-9499-DBBB110F95BC}" name="Año" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{1DF19E8A-8298-4F3D-AB43-BBE45D949D0B}" name="Total" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{69F22244-5660-4369-85F8-54598BB08C73}" name="Argentinos" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{0FF69E63-A9A1-4702-86C7-08F887C3F169}" name="Extranjeros" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D76F97B7-DF26-4FC7-8A89-7DB58854A5F3}" name="Tabla6" displayName="Tabla6" ref="A3:D10" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D76F97B7-DF26-4FC7-8A89-7DB58854A5F3}" name="Tabla6" displayName="Tabla6" ref="A3:D10" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A3:D10" xr:uid="{1E7D12E3-55C8-4805-A343-B3C63E37C6E0}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -18831,10 +22484,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{25B18C15-7970-4D49-BB0A-71BAE72D61CE}" name="Competicion" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{76DD5DD5-8050-4D73-A99A-BD9063923F41}" name="Partidos" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{48BB04D2-0EAC-4A2F-887E-EC0BDD8649CC}" name="Goles" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{AE2E073F-DC90-42DA-BB0D-8532021C4B88}" name="Promedio" dataDxfId="25">
+    <tableColumn id="1" xr3:uid="{25B18C15-7970-4D49-BB0A-71BAE72D61CE}" name="Competicion" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{76DD5DD5-8050-4D73-A99A-BD9063923F41}" name="Partidos" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{48BB04D2-0EAC-4A2F-887E-EC0BDD8649CC}" name="Goles" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{AE2E073F-DC90-42DA-BB0D-8532021C4B88}" name="Promedio" dataDxfId="35">
       <calculatedColumnFormula>C4/B4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -18843,7 +22496,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3102CCC1-973E-4F1F-8C5A-EEABCC15030E}" name="Tabla8" displayName="Tabla8" ref="A2:F13" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3102CCC1-973E-4F1F-8C5A-EEABCC15030E}" name="Tabla8" displayName="Tabla8" ref="A2:F13" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="33" tableBorderDxfId="32">
   <autoFilter ref="A2:F13" xr:uid="{F04038A5-189D-45A3-AFE5-C9221502EF9F}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -18853,12 +22506,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A7D9F072-8F05-4ED2-A483-986D36DBFB23}" name="Partido Politico" dataDxfId="21" dataCellStyle="Normal 5"/>
-    <tableColumn id="2" xr3:uid="{9374A983-81D2-44FD-9423-3F54146703D5}" name="Abosluto" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{51CFC167-ABE6-44E7-B1E5-27952AA5A6DC}" name="%" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{FC55FC16-7927-4BA8-8C8B-AB965E811D15}" name="Ciudadano nacido en el país" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{7DF521A7-A010-4289-9C98-4330685DA3B5}" name="Ciudadano extranjero" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{B354B1BA-7884-430A-A43D-4C2CDB36D6E3}" name="Ciudadano privado de libertad" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{A7D9F072-8F05-4ED2-A483-986D36DBFB23}" name="Partido Politico" dataDxfId="31" dataCellStyle="Normal 5"/>
+    <tableColumn id="2" xr3:uid="{9374A983-81D2-44FD-9423-3F54146703D5}" name="Abosluto" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{51CFC167-ABE6-44E7-B1E5-27952AA5A6DC}" name="%" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{FC55FC16-7927-4BA8-8C8B-AB965E811D15}" name="Ciudadano nacido en el país" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{7DF521A7-A010-4289-9C98-4330685DA3B5}" name="Ciudadano extranjero" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{B354B1BA-7884-430A-A43D-4C2CDB36D6E3}" name="Ciudadano privado de libertad" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -19288,56 +22941,142 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678EF217-D7FD-4496-B8C1-47C374B2318F}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.5703125" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="42"/>
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>135</v>
+      </c>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
-      <c r="G1" t="s">
-        <v>67</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>125</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="45">
+        <v>12946037</v>
+      </c>
+      <c r="C3" s="46">
+        <f>+B3/$B$11</f>
+        <v>0.47025375613478526</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
+    <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="45">
+        <v>10811586</v>
+      </c>
+      <c r="C4" s="46">
+        <f>+B4/$B$11</f>
+        <v>0.39272164340904159</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="45">
+        <v>1649322</v>
+      </c>
+      <c r="C5" s="46">
+        <f>+B5/$B$11</f>
+        <v>5.991021542544149E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="17"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="45">
+        <v>579228</v>
+      </c>
+      <c r="C6" s="46">
+        <f>+B6/$B$11</f>
+        <v>2.1039963245774701E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="45">
+        <v>457956</v>
+      </c>
+      <c r="C7" s="46">
+        <f>+B7/$B$11</f>
+        <v>1.6634861243209929E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="45">
+        <v>394207</v>
+      </c>
+      <c r="C8" s="46">
+        <f>+B8/$B$11</f>
+        <v>1.4319233171095161E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="47">
+        <v>441503</v>
+      </c>
+      <c r="C9" s="46">
+        <f>+B9/$B$11</f>
+        <v>1.6037220046163633E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="47">
+        <v>250057</v>
+      </c>
+      <c r="C10" s="46">
+        <f>+B10/$B$11</f>
+        <v>9.0831073244882574E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="48">
+        <f>SUM(B3:B10)</f>
+        <v>27529896</v>
+      </c>
+      <c r="C11" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -19345,18 +23084,855 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A716A854-F3FF-4D40-A4D1-27DE9F4834BF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>299</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>300</v>
+      </c>
+      <c r="G2" s="59" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="60" t="s">
+        <v>304</v>
+      </c>
+      <c r="B3" s="61">
+        <v>35538</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="60" t="s">
+        <v>305</v>
+      </c>
+      <c r="B4" s="62">
+        <v>36880</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" s="56" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
+        <v>306</v>
+      </c>
+      <c r="B5" s="62">
+        <v>39242</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" s="56" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="54" t="s">
+        <v>332</v>
+      </c>
+      <c r="B6" s="62">
+        <v>37599</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="G6" s="56" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="54" t="s">
+        <v>333</v>
+      </c>
+      <c r="B7" s="63">
+        <v>36699</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="G7" s="56" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="54" t="s">
+        <v>334</v>
+      </c>
+      <c r="B8" s="63">
+        <v>37293</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" s="56" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="B9" s="64">
+        <v>35658</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="F9" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="G9" s="56" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B10" s="64">
+        <v>34607</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="G10" s="56" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="B11" s="64">
+        <v>35684</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="F11" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="G11" s="56" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="B12" s="64">
+        <v>38507</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="G12" s="56" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B13" s="64">
+        <v>39316</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="F13" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="G13" s="56" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="B14" s="64">
+        <v>38392</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="E14" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="F14" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="G14" s="56" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="B15" s="64">
+        <v>38795</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="F15" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="G15" s="56" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="B16" s="64">
+        <v>34700</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>203</v>
+      </c>
+      <c r="F16" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="G16" s="56" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="B17" s="64">
+        <v>37531</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="E17" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="F17" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="G17" s="56" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="B18" s="64">
+        <v>37371</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="E18" s="55" t="s">
+        <v>213</v>
+      </c>
+      <c r="F18" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="G18" s="56" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B19" s="64">
+        <v>40596</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>216</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>217</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="F19" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="G19" s="56" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="B20" s="64">
+        <v>36753</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>221</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="E20" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="F20" s="55" t="s">
+        <v>224</v>
+      </c>
+      <c r="G20" s="56" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="B21" s="64">
+        <v>42944</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="E21" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="F21" s="55" t="s">
+        <v>229</v>
+      </c>
+      <c r="G21" s="56" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="B22" s="64">
+        <v>43488</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E22" s="55" t="s">
+        <v>233</v>
+      </c>
+      <c r="F22" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="G22" s="56" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="B23" s="64">
+        <v>46415</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>236</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>237</v>
+      </c>
+      <c r="E23" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="F23" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="G23" s="56" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="B24" s="64">
+        <v>46716</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>241</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="E24" s="55" t="s">
+        <v>243</v>
+      </c>
+      <c r="F24" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="G24" s="56" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="B25" s="64">
+        <v>49855</v>
+      </c>
+      <c r="C25" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="D25" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="E25" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="F25" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="G25" s="56" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="B26" s="64">
+        <v>49682</v>
+      </c>
+      <c r="C26" s="55" t="s">
+        <v>251</v>
+      </c>
+      <c r="D26" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="E26" s="55" t="s">
+        <v>253</v>
+      </c>
+      <c r="F26" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="G26" s="56" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B27" s="64">
+        <v>49735</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>256</v>
+      </c>
+      <c r="D27" s="55" t="s">
+        <v>257</v>
+      </c>
+      <c r="E27" s="55" t="s">
+        <v>258</v>
+      </c>
+      <c r="F27" s="55" t="s">
+        <v>259</v>
+      </c>
+      <c r="G27" s="56" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="B28" s="64">
+        <v>56714</v>
+      </c>
+      <c r="C28" s="55" t="s">
+        <v>261</v>
+      </c>
+      <c r="D28" s="55" t="s">
+        <v>262</v>
+      </c>
+      <c r="E28" s="55" t="s">
+        <v>262</v>
+      </c>
+      <c r="F28" s="55" t="s">
+        <v>263</v>
+      </c>
+      <c r="G28" s="56" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="B29" s="64">
+        <v>55847</v>
+      </c>
+      <c r="C29" s="55" t="s">
+        <v>265</v>
+      </c>
+      <c r="D29" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="E29" s="55" t="s">
+        <v>267</v>
+      </c>
+      <c r="F29" s="55" t="s">
+        <v>268</v>
+      </c>
+      <c r="G29" s="56" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="B30" s="64">
+        <v>58250</v>
+      </c>
+      <c r="C30" s="55" t="s">
+        <v>270</v>
+      </c>
+      <c r="D30" s="55" t="s">
+        <v>271</v>
+      </c>
+      <c r="E30" s="55" t="s">
+        <v>272</v>
+      </c>
+      <c r="F30" s="55" t="s">
+        <v>273</v>
+      </c>
+      <c r="G30" s="56" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="B31" s="64">
+        <v>58877</v>
+      </c>
+      <c r="C31" s="55" t="s">
+        <v>275</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>276</v>
+      </c>
+      <c r="E31" s="55" t="s">
+        <v>277</v>
+      </c>
+      <c r="F31" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="G31" s="56" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="B32" s="64">
+        <v>57352</v>
+      </c>
+      <c r="C32" s="55" t="s">
+        <v>280</v>
+      </c>
+      <c r="D32" s="55" t="s">
+        <v>281</v>
+      </c>
+      <c r="E32" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="F32" s="55" t="s">
+        <v>283</v>
+      </c>
+      <c r="G32" s="56" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="B33" s="64">
+        <v>56413</v>
+      </c>
+      <c r="C33" s="55" t="s">
+        <v>285</v>
+      </c>
+      <c r="D33" s="55" t="s">
+        <v>286</v>
+      </c>
+      <c r="E33" s="55" t="s">
+        <v>287</v>
+      </c>
+      <c r="F33" s="55" t="s">
+        <v>288</v>
+      </c>
+      <c r="G33" s="56" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="B34" s="64">
+        <v>57441</v>
+      </c>
+      <c r="C34" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="D34" s="55" t="s">
+        <v>291</v>
+      </c>
+      <c r="E34" s="55" t="s">
+        <v>292</v>
+      </c>
+      <c r="F34" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="G34" s="56" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="32"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="66"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="32"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="66"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="32"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="66"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="32"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="66"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="32"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="43" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -19401,7 +23977,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -19409,87 +23985,87 @@
       <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="C2" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="D2" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="37" t="s">
         <v>116</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="E2" s="46" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="45">
+      <c r="A3" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="36">
         <v>6381450</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="36">
         <v>1115824</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="36">
         <v>3224618</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="36">
         <v>2041008</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="45">
+      <c r="A4" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="36">
         <v>6511081</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="36">
         <v>1127754</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="36">
         <v>3303040</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="36">
         <v>2080287</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="45">
+      <c r="A5" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="36">
         <v>6540672</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="36">
         <v>1131742</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="36">
         <v>3323394</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="36">
         <v>2085536</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="45">
+      <c r="A6" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="36">
         <v>6585252</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="36">
         <v>1227599</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="36">
         <v>3290277</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="36">
         <v>2067376</v>
       </c>
     </row>
@@ -19511,7 +24087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61952216-0CBA-4FB1-BA6D-8D1080CAF04E}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
@@ -19523,7 +24099,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -19538,190 +24114,190 @@
       <c r="L1" s="43"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="31" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="34">
         <v>3924869</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="34">
         <v>2521226</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="34">
         <v>2849368</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="34">
         <v>3747664</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="34">
         <v>2389908</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="34">
         <v>2811920</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="34">
         <v>2739895</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="34">
         <v>1761833</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="34">
         <v>1952105</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="34">
         <v>1310620</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="34">
         <v>993733</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="34">
         <v>729644</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="34">
         <v>1792593</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="34">
         <v>1288824</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="34">
         <v>1043349</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="34">
         <v>1955719</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="34">
         <v>1251133</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="34">
         <v>1245162</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="34">
         <v>2051444</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="34">
         <v>1264376</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="34">
         <v>1305332</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="34">
         <v>2390042</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="34">
         <v>1493055</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="34">
         <v>1481273</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="37">
+      <c r="B12" s="34">
         <v>2731068</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C12" s="34">
         <v>1729545</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="34">
         <v>1604939</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="37">
+      <c r="B13" s="34">
         <v>3106689</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="34">
         <v>1962750</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="34">
         <v>1872951</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="37">
+      <c r="B14" s="34">
         <v>3391510</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14" s="34">
         <v>2142765</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="34">
         <v>2154190</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="37">
+      <c r="B15" s="34">
         <v>3812845</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="34">
         <v>2450621</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="34">
         <v>2350649</v>
       </c>
     </row>
@@ -20354,30 +24930,30 @@
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="14">
         <v>330</v>
@@ -20401,7 +24977,7 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="14">
         <v>300</v>
@@ -20446,75 +25022,75 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="29" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="32">
+      <c r="B3" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="29">
         <v>5800</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="29">
         <v>6000</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="29">
         <v>3800</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="29">
         <f>SUM(Datos[[#This Row],[Frontend]:[FullStack]])</f>
         <v>15600</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="32">
+      <c r="B4" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="29">
         <v>2300</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="29">
         <v>1100</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="29">
         <v>700</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="29">
         <f>SUM(Datos[[#This Row],[Frontend]:[FullStack]])</f>
         <v>4100</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="29">
         <f>SUM(C3:C4)</f>
         <v>8100</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="29">
         <f>SUM(D3:D4)</f>
         <v>7100</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="29">
         <f>SUM(E3:E4)</f>
         <v>4500</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="29">
         <f>SUM(Datos[[#This Row],[Frontend]:[FullStack]])</f>
         <v>19700</v>
       </c>
@@ -20547,21 +25123,21 @@
   <sheetData>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="14">
         <v>2</v>
@@ -20575,7 +25151,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" s="14">
         <v>4</v>
@@ -20589,7 +25165,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" s="14">
         <v>1</v>
@@ -20603,7 +25179,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B9" s="14">
         <v>2</v>
@@ -20617,7 +25193,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" s="14">
         <v>2</v>
@@ -20631,7 +25207,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" s="14">
         <v>3</v>
@@ -20645,7 +25221,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" s="14">
         <v>2</v>
@@ -20659,7 +25235,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="14">
         <v>1</v>
@@ -20673,7 +25249,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B14" s="14">
         <v>4</v>
@@ -20687,7 +25263,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B15" s="14">
         <v>6</v>
@@ -21098,7 +25674,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -21107,245 +25683,245 @@
       <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="D2" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="E2" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="19">
+      <c r="A3" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="16">
         <v>886475</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="22">
         <v>48.08871139232815</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="26">
         <v>884838</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="17">
         <v>1628</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="17">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="19">
+      <c r="A4" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="16">
         <v>614232</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="22">
         <v>33.320314025700114</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="26">
         <v>608840</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="17">
         <v>5214</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="17">
         <v>178</v>
       </c>
       <c r="H4" s="39"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="19">
+      <c r="A5" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="16">
         <v>137519</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="22">
         <v>7.460009026719959</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="26">
         <v>137320</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="17">
         <v>197</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="17">
         <v>2</v>
       </c>
-      <c r="G5" s="33"/>
+      <c r="G5" s="30"/>
       <c r="H5" s="40"/>
     </row>
     <row r="6" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="19">
+      <c r="A6" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="16">
         <v>83887</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="22">
         <v>4.5506277476163817</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="26">
         <v>83440</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="18">
         <v>434</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="18">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="19">
+      <c r="A7" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="16">
         <v>58643</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="22">
         <v>3.1812135730621844</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="26">
         <v>58589</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="18">
         <v>53</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="19">
+      <c r="A8" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="16">
         <v>24484</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="22">
         <v>1.3281863670490004</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="26">
         <v>24386</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="17">
         <v>94</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="17">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="19">
+      <c r="A9" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="16">
         <v>18234</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="22">
         <v>0.98914189743389458</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="26">
         <v>18172</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="17">
         <v>58</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="17">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="19">
+      <c r="A10" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="16">
         <v>17602</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="22">
         <v>0.95485772066641506</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="26">
         <v>17503</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="16">
         <v>96</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="19">
+      <c r="A11" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="16">
         <v>2340</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="22">
         <v>0.12693824942389562</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="26">
         <v>2249</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="16">
         <v>88</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="16">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="19">
+      <c r="A12" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="16">
         <v>115784</v>
       </c>
-      <c r="C12" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="30">
+      <c r="C12" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="27">
         <v>115492</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="17">
         <v>275</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="17">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="22">
+      <c r="A13" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="19">
         <v>18144</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="31">
+      <c r="C13" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="28">
         <v>18106</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="17">
         <v>36</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="17">
         <v>2</v>
       </c>
     </row>
